--- a/separate_predict_year/monthly_year_predictions.xlsx
+++ b/separate_predict_year/monthly_year_predictions.xlsx
@@ -1279,55 +1279,55 @@
     <t>month-day</t>
   </si>
   <si>
-    <t>245 (score:100.0000%, count:1) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>245 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-17</t>
   </si>
   <si>
-    <t>139 (score:100.0000%, count:1) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 109 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 119 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 129 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 149 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0)</t>
+    <t>139 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-18</t>
   </si>
   <si>
-    <t>729 (score:100.0000%, count:1) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 709 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 719 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 739 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 749 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0)</t>
+    <t>729 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-19</t>
   </si>
   <si>
-    <t>485 (score:100.0000%, count:1) | 480 (score:0.0000%, count:0) | 481 (score:0.0000%, count:0) | 482 (score:0.0000%, count:0) | 483 (score:0.0000%, count:0) | 484 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>485 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-20</t>
   </si>
   <si>
-    <t>216 (score:100.0000%, count:1) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 246 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>216 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-21</t>
   </si>
   <si>
-    <t>907 (score:100.0000%, count:1) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 917 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 927 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 937 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 947 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0)</t>
+    <t>907 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-22</t>
   </si>
   <si>
-    <t>165 (score:100.0000%, count:1) | 160 (score:0.0000%, count:0) | 161 (score:0.0000%, count:0) | 162 (score:0.0000%, count:0) | 163 (score:0.0000%, count:0) | 164 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>165 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-23</t>
   </si>
   <si>
-    <t>994 (score:100.0000%, count:1) | 990 (score:0.0000%, count:0) | 991 (score:0.0000%, count:0) | 992 (score:0.0000%, count:0) | 993 (score:0.0000%, count:0) | 995 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0)</t>
+    <t>994 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-24</t>
   </si>
   <si>
-    <t>287 (score:100.0000%, count:1) | 280 (score:0.0000%, count:0) | 281 (score:0.0000%, count:0) | 282 (score:0.0000%, count:0) | 283 (score:0.0000%, count:0) | 284 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 227 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>287 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-25</t>
@@ -1336,367 +1336,367 @@
     <t>2025-11-26</t>
   </si>
   <si>
-    <t>503 (score:100.0000%, count:1) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0)</t>
+    <t>503 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-27</t>
   </si>
   <si>
-    <t>899 (score:100.0000%, count:1) | 890 (score:0.0000%, count:0) | 891 (score:0.0000%, count:0) | 892 (score:0.0000%, count:0) | 893 (score:0.0000%, count:0) | 894 (score:0.0000%, count:0) | 809 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 819 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 829 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 839 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>899 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-28</t>
   </si>
   <si>
-    <t>169 (score:100.0000%, count:1) | 160 (score:0.0000%, count:0) | 161 (score:0.0000%, count:0) | 162 (score:0.0000%, count:0) | 163 (score:0.0000%, count:0) | 164 (score:0.0000%, count:0) | 109 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 119 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 129 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 139 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>169 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-29</t>
   </si>
   <si>
-    <t>652 (score:100.0000%, count:1) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 655 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0)</t>
+    <t>652 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-11-30</t>
   </si>
   <si>
-    <t>654 (score:100.0000%, count:1) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 652 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 655 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0)</t>
+    <t>654 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-01</t>
   </si>
   <si>
-    <t>035 (score:100.0000%, count:1) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 045 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0)</t>
+    <t>035 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-02</t>
   </si>
   <si>
-    <t>811 (score:100.0000%, count:1) | 810 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0) | 845 (score:0.0000%, count:0)</t>
+    <t>811 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-03</t>
   </si>
   <si>
-    <t>784 (score:100.0000%, count:1) | 780 (score:0.0000%, count:0) | 781 (score:0.0000%, count:0) | 782 (score:0.0000%, count:0) | 783 (score:0.0000%, count:0) | 785 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>784 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-04</t>
   </si>
   <si>
-    <t>526 (score:100.0000%, count:1) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 506 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 516 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 536 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 546 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0)</t>
+    <t>526 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-05</t>
   </si>
   <si>
-    <t>065 (score:100.0000%, count:1) | 060 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 063 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>065 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-06</t>
   </si>
   <si>
-    <t>229 (score:100.0000%, count:1) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 239 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 249 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>229 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-07</t>
   </si>
   <si>
-    <t>161 (score:100.0000%, count:1) | 160 (score:0.0000%, count:0) | 162 (score:0.0000%, count:0) | 163 (score:0.0000%, count:0) | 164 (score:0.0000%, count:0) | 165 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0)</t>
+    <t>161 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-08</t>
   </si>
   <si>
-    <t>347 (score:100.0000%, count:1) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 342 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 307 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 317 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 327 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 337 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0)</t>
+    <t>347 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-09</t>
   </si>
   <si>
-    <t>745 (score:100.0000%, count:1) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>745 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-10</t>
   </si>
   <si>
-    <t>561 (score:100.0000%, count:1) | 560 (score:0.0000%, count:0) | 562 (score:0.0000%, count:0) | 563 (score:0.0000%, count:0) | 564 (score:0.0000%, count:0) | 565 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>561 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-11</t>
   </si>
   <si>
-    <t>324 (score:100.0000%, count:1) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 342 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 345 (score:0.0000%, count:0)</t>
+    <t>324 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-12</t>
   </si>
   <si>
-    <t>089 (score:100.0000%, count:1) | 080 (score:0.0000%, count:0) | 081 (score:0.0000%, count:0) | 082 (score:0.0000%, count:0) | 083 (score:0.0000%, count:0) | 084 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 039 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>089 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-13</t>
   </si>
   <si>
-    <t>716 (score:100.0000%, count:1) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 706 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 726 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 736 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 746 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0)</t>
+    <t>716 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-14</t>
   </si>
   <si>
-    <t>200 (score:100.0000%, count:1) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0)</t>
+    <t>200 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-15</t>
   </si>
   <si>
-    <t>864 (score:100.0000%, count:1) | 860 (score:0.0000%, count:0) | 861 (score:0.0000%, count:0) | 862 (score:0.0000%, count:0) | 863 (score:0.0000%, count:0) | 865 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>864 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-16</t>
   </si>
   <si>
-    <t>874 (score:100.0000%, count:1) | 870 (score:0.0000%, count:0) | 871 (score:0.0000%, count:0) | 872 (score:0.0000%, count:0) | 873 (score:0.0000%, count:0) | 875 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>874 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-17</t>
   </si>
   <si>
-    <t>505 (score:100.0000%, count:1) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0)</t>
+    <t>505 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-18</t>
   </si>
   <si>
-    <t>408 (score:100.0000%, count:1) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 418 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 428 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 438 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 448 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0)</t>
+    <t>408 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-19</t>
   </si>
   <si>
-    <t>110 (score:100.0000%, count:1) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>110 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-20</t>
   </si>
   <si>
-    <t>969 (score:100.0000%, count:1) | 960 (score:0.0000%, count:0) | 961 (score:0.0000%, count:0) | 962 (score:0.0000%, count:0) | 963 (score:0.0000%, count:0) | 964 (score:0.0000%, count:0) | 909 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 919 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 929 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 939 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>969 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-21</t>
   </si>
   <si>
-    <t>857 (score:100.0000%, count:1) | 850 (score:0.0000%, count:0) | 851 (score:0.0000%, count:0) | 852 (score:0.0000%, count:0) | 853 (score:0.0000%, count:0) | 854 (score:0.0000%, count:0) | 807 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 817 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 827 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 837 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>857 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-22</t>
   </si>
   <si>
-    <t>651 (score:100.0000%, count:1) | 650 (score:0.0000%, count:0) | 652 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 655 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0)</t>
+    <t>651 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-23</t>
   </si>
   <si>
-    <t>251 (score:100.0000%, count:1) | 250 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 254 (score:0.0000%, count:0) | 255 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0)</t>
+    <t>251 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-24</t>
   </si>
   <si>
-    <t>098 (score:100.0000%, count:1) | 090 (score:0.0000%, count:0) | 091 (score:0.0000%, count:0) | 092 (score:0.0000%, count:0) | 093 (score:0.0000%, count:0) | 094 (score:0.0000%, count:0) | 008 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 028 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 038 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>098 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-25</t>
   </si>
   <si>
-    <t>427 (score:100.0000%, count:1) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 407 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 417 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 437 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 447 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0)</t>
+    <t>427 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-26</t>
   </si>
   <si>
-    <t>412 (score:100.0000%, count:1) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>412 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-27</t>
   </si>
   <si>
-    <t>809 (score:100.0000%, count:1) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 819 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 829 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 839 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 849 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0)</t>
+    <t>809 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-28</t>
   </si>
   <si>
-    <t>096 (score:100.0000%, count:1) | 090 (score:0.0000%, count:0) | 091 (score:0.0000%, count:0) | 092 (score:0.0000%, count:0) | 093 (score:0.0000%, count:0) | 094 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>096 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-29</t>
   </si>
   <si>
-    <t>765 (score:100.0000%, count:1) | 760 (score:0.0000%, count:0) | 761 (score:0.0000%, count:0) | 762 (score:0.0000%, count:0) | 763 (score:0.0000%, count:0) | 764 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>765 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-30</t>
   </si>
   <si>
-    <t>342 (score:100.0000%, count:1) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 345 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0)</t>
+    <t>342 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>794 (score:100.0000%, count:1) | 790 (score:0.0000%, count:0) | 791 (score:0.0000%, count:0) | 792 (score:0.0000%, count:0) | 793 (score:0.0000%, count:0) | 795 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>794 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-01</t>
   </si>
   <si>
-    <t>675 (score:100.0000%, count:1) | 670 (score:0.0000%, count:0) | 671 (score:0.0000%, count:0) | 672 (score:0.0000%, count:0) | 673 (score:0.0000%, count:0) | 674 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0)</t>
+    <t>675 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-02</t>
   </si>
   <si>
-    <t>048 (score:100.0000%, count:1) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 008 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 028 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 038 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>048 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-03</t>
   </si>
   <si>
-    <t>858 (score:100.0000%, count:1) | 850 (score:0.0000%, count:0) | 851 (score:0.0000%, count:0) | 852 (score:0.0000%, count:0) | 853 (score:0.0000%, count:0) | 854 (score:0.0000%, count:0) | 808 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 818 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 828 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 838 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>858 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-04</t>
   </si>
   <si>
-    <t>521 (score:100.0000%, count:1) | 520 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0)</t>
+    <t>521 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-05</t>
   </si>
   <si>
-    <t>995 (score:100.0000%, count:1) | 990 (score:0.0000%, count:0) | 991 (score:0.0000%, count:0) | 992 (score:0.0000%, count:0) | 993 (score:0.0000%, count:0) | 994 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>995 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-06</t>
   </si>
   <si>
-    <t>188 (score:100.0000%, count:1) | 180 (score:0.0000%, count:0) | 181 (score:0.0000%, count:0) | 182 (score:0.0000%, count:0) | 183 (score:0.0000%, count:0) | 184 (score:0.0000%, count:0) | 108 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 118 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 128 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 138 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>188 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-07</t>
   </si>
   <si>
-    <t>404 (score:100.0000%, count:1) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>404 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-08</t>
   </si>
   <si>
-    <t>156 (score:100.0000%, count:1) | 150 (score:0.0000%, count:0) | 151 (score:0.0000%, count:0) | 152 (score:0.0000%, count:0) | 153 (score:0.0000%, count:0) | 154 (score:0.0000%, count:0) | 106 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 116 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 126 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 136 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>156 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-09</t>
   </si>
   <si>
-    <t>854 (score:100.0000%, count:1) | 850 (score:0.0000%, count:0) | 851 (score:0.0000%, count:0) | 852 (score:0.0000%, count:0) | 853 (score:0.0000%, count:0) | 855 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>854 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-10</t>
   </si>
   <si>
-    <t>727 (score:100.0000%, count:1) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 707 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 717 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 737 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 747 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0)</t>
+    <t>727 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-11</t>
   </si>
   <si>
-    <t>793 (score:100.0000%, count:1) | 790 (score:0.0000%, count:0) | 791 (score:0.0000%, count:0) | 792 (score:0.0000%, count:0) | 794 (score:0.0000%, count:0) | 795 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>793 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-12</t>
   </si>
   <si>
-    <t>639 (score:100.0000%, count:1) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 609 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 619 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 629 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 649 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0)</t>
+    <t>639 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-13</t>
   </si>
   <si>
-    <t>998 (score:100.0000%, count:1) | 990 (score:0.0000%, count:0) | 991 (score:0.0000%, count:0) | 992 (score:0.0000%, count:0) | 993 (score:0.0000%, count:0) | 994 (score:0.0000%, count:0) | 908 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 918 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 928 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 938 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>998 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-14</t>
   </si>
   <si>
-    <t>769 (score:100.0000%, count:1) | 760 (score:0.0000%, count:0) | 761 (score:0.0000%, count:0) | 762 (score:0.0000%, count:0) | 763 (score:0.0000%, count:0) | 764 (score:0.0000%, count:0) | 709 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 719 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 729 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 739 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>769 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-15</t>
   </si>
   <si>
-    <t>116 (score:100.0000%, count:1) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 106 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 126 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 136 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 146 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0)</t>
+    <t>116 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-16</t>
   </si>
   <si>
-    <t>929 (score:100.0000%, count:1) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 909 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 919 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 939 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 949 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0)</t>
+    <t>929 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-17</t>
   </si>
   <si>
-    <t>570 (score:100.0000%, count:1) | 571 (score:0.0000%, count:0) | 572 (score:0.0000%, count:0) | 573 (score:0.0000%, count:0) | 574 (score:0.0000%, count:0) | 575 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>570 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-18</t>
   </si>
   <si>
-    <t>474 (score:100.0000%, count:1) | 470 (score:0.0000%, count:0) | 471 (score:0.0000%, count:0) | 472 (score:0.0000%, count:0) | 473 (score:0.0000%, count:0) | 475 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0)</t>
+    <t>474 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-19</t>
   </si>
   <si>
-    <t>750 (score:100.0000%, count:1) | 751 (score:0.0000%, count:0) | 752 (score:0.0000%, count:0) | 753 (score:0.0000%, count:0) | 754 (score:0.0000%, count:0) | 755 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>750 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-20</t>
   </si>
   <si>
-    <t>416 (score:100.0000%, count:1) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 406 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 426 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 436 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 446 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0)</t>
+    <t>416 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-21</t>
   </si>
   <si>
-    <t>509 (score:100.0000%, count:1) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 519 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 529 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 539 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 549 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0)</t>
+    <t>509 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-22</t>
   </si>
   <si>
-    <t>270 (score:100.0000%, count:1) | 271 (score:0.0000%, count:0) | 272 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 275 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0)</t>
+    <t>270 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-23</t>
   </si>
   <si>
-    <t>460 (score:100.0000%, count:1) | 461 (score:0.0000%, count:0) | 462 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 464 (score:0.0000%, count:0) | 465 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0)</t>
+    <t>460 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-24</t>
   </si>
   <si>
-    <t>275 (score:100.0000%, count:1) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 272 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>275 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-25</t>
   </si>
   <si>
-    <t>254 (score:100.0000%, count:1) | 250 (score:0.0000%, count:0) | 251 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 255 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0)</t>
+    <t>254 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-26</t>
@@ -1705,25 +1705,25 @@
     <t>month</t>
   </si>
   <si>
-    <t>116 (score:3.3333%, count:1) | 156 (score:3.3333%, count:1) | 188 (score:3.3333%, count:1) | 254 (score:3.3333%, count:1) | 270 (score:3.3333%, count:1) | 275 (score:3.3333%, count:1) | 374 (score:3.3333%, count:1) | 404 (score:3.3333%, count:1) | 416 (score:3.3333%, count:1) | 460 (score:3.3333%, count:1) | 474 (score:3.3333%, count:1) | 509 (score:3.3333%, count:1) | 521 (score:3.3333%, count:1) | 554 (score:3.3333%, count:1) | 570 (score:3.3333%, count:1) | 639 (score:3.3333%, count:1) | 675 (score:3.3333%, count:1) | 705 (score:3.3333%, count:1) | 727 (score:3.3333%, count:1) | 750 (score:3.3333%, count:1) | 769 (score:3.3333%, count:1) | 793 (score:3.3333%, count:1) | 854 (score:3.3333%, count:1) | 857 (score:3.3333%, count:1) | 858 (score:3.3333%, count:1) | 929 (score:3.3333%, count:1) | 982 (score:3.3333%, count:1) | 995 (score:3.3333%, count:1) | 998 (score:3.3333%, count:1) | 048 (score:3.3333%, count:1)</t>
+    <t>554 (score:0.322589%, count:1) | 754 (score:0.301294%, count:0) | 474 (score:0.295922%, count:1) | 750 (score:0.291478%, count:1) | 254 (score:0.275922%, count:1) | 854 (score:0.275922%, count:1) | 774 (score:0.267961%, count:0) | 454 (score:0.254628%, count:0) | 954 (score:0.254628%, count:0) | 570 (score:0.242589%, count:1) | 858 (score:0.229256%, count:1) | 574 (score:0.227961%, count:0) | 974 (score:0.227961%, count:0) | 755 (score:0.223517%, count:0) | 758 (score:0.223517%, count:0) | 759 (score:0.223517%, count:0) | 270 (score:0.215922%, count:1) | 275 (score:0.215922%, count:1) | 404 (score:0.215922%, count:1) | 154 (score:0.207961%, count:0) | 156 (score:0.205922%, count:1) | 705 (score:0.202589%, count:1) | 770 (score:0.201294%, count:0) | 775 (score:0.201294%, count:0) | 778 (score:0.201294%, count:0) | 779 (score:0.201294%, count:0) | 450 (score:0.192406%, count:0) | 455 (score:0.192406%, count:0) | 458 (score:0.192406%, count:0) | 459 (score:0.192406%, count:0) | 550 (score:0.192406%, count:0) | 555 (score:0.192406%, count:0) | 558 (score:0.192406%, count:0) | 559 (score:0.192406%, count:0) | 950 (score:0.192406%, count:0) | 955 (score:0.192406%, count:0) | 958 (score:0.192406%, count:0) | 959 (score:0.192406%, count:0) | 509 (score:0.189256%, count:1) | 675 (score:0.189256%, count:1) | 929 (score:0.189256%, count:1) | 995 (score:0.189256%, count:1) | 998 (score:0.189256%, count:1) | 174 (score:0.187961%, count:0) | 274 (score:0.187961%, count:0) | 874 (score:0.187961%, count:0) | 756 (score:0.184628%, count:0) | 857 (score:0.182589%, count:1) | 769 (score:0.180367%, count:1) | 374 (score:0.175922%, count:1)</t>
   </si>
   <si>
     <t>2026-01-27</t>
   </si>
   <si>
-    <t>705 (score:100.0000%, count:1) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 745 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0)</t>
+    <t>705 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-28</t>
   </si>
   <si>
-    <t>554 (score:100.0000%, count:1) | 550 (score:0.0000%, count:0) | 551 (score:0.0000%, count:0) | 552 (score:0.0000%, count:0) | 553 (score:0.0000%, count:0) | 555 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>554 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-29</t>
   </si>
   <si>
-    <t>982 (score:100.0000%, count:1) | 980 (score:0.0000%, count:0) | 981 (score:0.0000%, count:0) | 983 (score:0.0000%, count:0) | 984 (score:0.0000%, count:0) | 985 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0)</t>
+    <t>982 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-01-30</t>
@@ -1732,7 +1732,7 @@
     <t>2026-01-31</t>
   </si>
   <si>
-    <t>374 (score:100.0000%, count:1) | 370 (score:0.0000%, count:0) | 371 (score:0.0000%, count:0) | 372 (score:0.0000%, count:0) | 373 (score:0.0000%, count:0) | 375 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0)</t>
+    <t>374 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-01</t>
@@ -1741,223 +1741,223 @@
     <t>2026-02-02</t>
   </si>
   <si>
-    <t>478 (score:100.0000%, count:1) | 470 (score:0.0000%, count:0) | 471 (score:0.0000%, count:0) | 472 (score:0.0000%, count:0) | 473 (score:0.0000%, count:0) | 474 (score:0.0000%, count:0) | 408 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 418 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 428 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 438 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>478 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-03</t>
   </si>
   <si>
-    <t>866 (score:100.0000%, count:1) | 860 (score:0.0000%, count:0) | 861 (score:0.0000%, count:0) | 862 (score:0.0000%, count:0) | 863 (score:0.0000%, count:0) | 864 (score:0.0000%, count:0) | 806 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 816 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 826 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 836 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>866 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-04</t>
   </si>
   <si>
-    <t>092 (score:100.0000%, count:1) | 090 (score:0.0000%, count:0) | 091 (score:0.0000%, count:0) | 093 (score:0.0000%, count:0) | 094 (score:0.0000%, count:0) | 095 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0)</t>
+    <t>092 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-05</t>
   </si>
   <si>
-    <t>132 (score:100.0000%, count:1) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>132 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-06</t>
   </si>
   <si>
-    <t>299 (score:100.0000%, count:1) | 290 (score:0.0000%, count:0) | 291 (score:0.0000%, count:0) | 292 (score:0.0000%, count:0) | 293 (score:0.0000%, count:0) | 294 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 229 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 239 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>299 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-07</t>
   </si>
   <si>
-    <t>137 (score:100.0000%, count:1) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 147 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0)</t>
+    <t>137 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-08</t>
   </si>
   <si>
-    <t>484 (score:100.0000%, count:1) | 480 (score:0.0000%, count:0) | 481 (score:0.0000%, count:0) | 482 (score:0.0000%, count:0) | 483 (score:0.0000%, count:0) | 485 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0)</t>
+    <t>484 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-09</t>
   </si>
   <si>
-    <t>600 (score:100.0000%, count:1) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0)</t>
+    <t>600 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-10</t>
   </si>
   <si>
-    <t>168 (score:100.0000%, count:1) | 160 (score:0.0000%, count:0) | 161 (score:0.0000%, count:0) | 162 (score:0.0000%, count:0) | 163 (score:0.0000%, count:0) | 164 (score:0.0000%, count:0) | 108 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 118 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 128 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 138 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>168 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-11</t>
   </si>
   <si>
-    <t>612 (score:100.0000%, count:1) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0)</t>
+    <t>612 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-12</t>
   </si>
   <si>
-    <t>282 (score:100.0000%, count:1) | 280 (score:0.0000%, count:0) | 281 (score:0.0000%, count:0) | 283 (score:0.0000%, count:0) | 284 (score:0.0000%, count:0) | 285 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0)</t>
+    <t>282 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-13</t>
   </si>
   <si>
-    <t>480 (score:100.0000%, count:1) | 481 (score:0.0000%, count:0) | 482 (score:0.0000%, count:0) | 483 (score:0.0000%, count:0) | 484 (score:0.0000%, count:0) | 485 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0)</t>
+    <t>480 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-14</t>
   </si>
   <si>
-    <t>398 (score:100.0000%, count:1) | 390 (score:0.0000%, count:0) | 391 (score:0.0000%, count:0) | 392 (score:0.0000%, count:0) | 393 (score:0.0000%, count:0) | 394 (score:0.0000%, count:0) | 308 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 318 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 328 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 338 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0)</t>
+    <t>398 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-15</t>
   </si>
   <si>
-    <t>997 (score:100.0000%, count:1) | 990 (score:0.0000%, count:0) | 991 (score:0.0000%, count:0) | 992 (score:0.0000%, count:0) | 993 (score:0.0000%, count:0) | 994 (score:0.0000%, count:0) | 907 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 917 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 927 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 937 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>997 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-16</t>
   </si>
   <si>
-    <t>876 (score:100.0000%, count:1) | 870 (score:0.0000%, count:0) | 871 (score:0.0000%, count:0) | 872 (score:0.0000%, count:0) | 873 (score:0.0000%, count:0) | 874 (score:0.0000%, count:0) | 806 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 816 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 826 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 836 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>876 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-17</t>
   </si>
   <si>
-    <t>768 (score:100.0000%, count:1) | 760 (score:0.0000%, count:0) | 761 (score:0.0000%, count:0) | 762 (score:0.0000%, count:0) | 763 (score:0.0000%, count:0) | 764 (score:0.0000%, count:0) | 708 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 718 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 728 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 738 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>768 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-18</t>
   </si>
   <si>
-    <t>890 (score:100.0000%, count:1) | 891 (score:0.0000%, count:0) | 892 (score:0.0000%, count:0) | 893 (score:0.0000%, count:0) | 894 (score:0.0000%, count:0) | 895 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>890 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-19</t>
   </si>
   <si>
-    <t>155 (score:100.0000%, count:1) | 150 (score:0.0000%, count:0) | 151 (score:0.0000%, count:0) | 152 (score:0.0000%, count:0) | 153 (score:0.0000%, count:0) | 154 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>155 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-20</t>
   </si>
   <si>
-    <t>237 (score:100.0000%, count:1) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 227 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 247 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>237 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-21</t>
   </si>
   <si>
-    <t>610 (score:100.0000%, count:1) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0)</t>
+    <t>610 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-22</t>
   </si>
   <si>
-    <t>869 (score:100.0000%, count:1) | 860 (score:0.0000%, count:0) | 861 (score:0.0000%, count:0) | 862 (score:0.0000%, count:0) | 863 (score:0.0000%, count:0) | 864 (score:0.0000%, count:0) | 809 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 819 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 829 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 839 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>869 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-23</t>
   </si>
   <si>
-    <t>562 (score:100.0000%, count:1) | 560 (score:0.0000%, count:0) | 561 (score:0.0000%, count:0) | 563 (score:0.0000%, count:0) | 564 (score:0.0000%, count:0) | 565 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>562 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-24</t>
   </si>
   <si>
-    <t>496 (score:100.0000%, count:1) | 490 (score:0.0000%, count:0) | 491 (score:0.0000%, count:0) | 492 (score:0.0000%, count:0) | 493 (score:0.0000%, count:0) | 494 (score:0.0000%, count:0) | 406 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 416 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 426 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 436 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>496 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-25</t>
   </si>
   <si>
-    <t>575 (score:100.0000%, count:1) | 570 (score:0.0000%, count:0) | 571 (score:0.0000%, count:0) | 572 (score:0.0000%, count:0) | 573 (score:0.0000%, count:0) | 574 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0)</t>
+    <t>575 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-26</t>
   </si>
   <si>
-    <t>431 (score:100.0000%, count:1) | 430 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>431 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-27</t>
   </si>
   <si>
-    <t>063 (score:100.0000%, count:1) | 060 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 065 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0)</t>
+    <t>063 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-02-28</t>
   </si>
   <si>
-    <t>991 (score:100.0000%, count:1) | 990 (score:0.0000%, count:0) | 992 (score:0.0000%, count:0) | 993 (score:0.0000%, count:0) | 994 (score:0.0000%, count:0) | 995 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0)</t>
+    <t>991 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-01</t>
   </si>
   <si>
-    <t>127 (score:100.0000%, count:1) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 137 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 147 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0)</t>
+    <t>127 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-02</t>
   </si>
   <si>
-    <t>976 (score:100.0000%, count:1) | 970 (score:0.0000%, count:0) | 971 (score:0.0000%, count:0) | 972 (score:0.0000%, count:0) | 973 (score:0.0000%, count:0) | 974 (score:0.0000%, count:0) | 906 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 916 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 926 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 936 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>976 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-03</t>
   </si>
   <si>
-    <t>804 (score:100.0000%, count:1) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 845 (score:0.0000%, count:0)</t>
+    <t>804 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-04</t>
   </si>
   <si>
-    <t>979 (score:100.0000%, count:1) | 970 (score:0.0000%, count:0) | 971 (score:0.0000%, count:0) | 972 (score:0.0000%, count:0) | 973 (score:0.0000%, count:0) | 974 (score:0.0000%, count:0) | 909 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 919 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 929 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 939 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>979 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-05</t>
   </si>
   <si>
-    <t>564 (score:100.0000%, count:1) | 560 (score:0.0000%, count:0) | 561 (score:0.0000%, count:0) | 562 (score:0.0000%, count:0) | 563 (score:0.0000%, count:0) | 565 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>564 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-06</t>
   </si>
   <si>
-    <t>432 (score:100.0000%, count:1) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>432 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-07</t>
   </si>
   <si>
-    <t>821 (score:100.0000%, count:1) | 820 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0) | 845 (score:0.0000%, count:0)</t>
+    <t>821 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-08</t>
   </si>
   <si>
-    <t>145 (score:100.0000%, count:1) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>145 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-09</t>
   </si>
   <si>
-    <t>255 (score:100.0000%, count:1) | 250 (score:0.0000%, count:0) | 251 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 254 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>255 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-10</t>
   </si>
   <si>
-    <t>581 (score:100.0000%, count:1) | 580 (score:0.0000%, count:0) | 582 (score:0.0000%, count:0) | 583 (score:0.0000%, count:0) | 584 (score:0.0000%, count:0) | 585 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>581 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-11</t>
@@ -1969,19 +1969,19 @@
     <t>2026-03-13</t>
   </si>
   <si>
-    <t>501 (score:100.0000%, count:1) | 500 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0)</t>
+    <t>501 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-14</t>
   </si>
   <si>
-    <t>448 (score:100.0000%, count:1) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 408 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 418 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 428 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 438 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>448 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-15</t>
   </si>
   <si>
-    <t>123 (score:100.0000%, count:1) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>123 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-16</t>
@@ -1990,49 +1990,49 @@
     <t>2026-03-17</t>
   </si>
   <si>
-    <t>533 (score:100.0000%, count:1) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0)</t>
+    <t>533 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-18</t>
   </si>
   <si>
-    <t>071 (score:100.0000%, count:1) | 070 (score:0.0000%, count:0) | 072 (score:0.0000%, count:0) | 073 (score:0.0000%, count:0) | 074 (score:0.0000%, count:0) | 075 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0)</t>
+    <t>071 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-19</t>
   </si>
   <si>
-    <t>920 (score:100.0000%, count:1) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0) | 945 (score:0.0000%, count:0)</t>
+    <t>920 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-20</t>
   </si>
   <si>
-    <t>356 (score:100.0000%, count:1) | 350 (score:0.0000%, count:0) | 351 (score:0.0000%, count:0) | 352 (score:0.0000%, count:0) | 353 (score:0.0000%, count:0) | 354 (score:0.0000%, count:0) | 306 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 316 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 326 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 336 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0)</t>
+    <t>356 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-21</t>
   </si>
   <si>
-    <t>649 (score:100.0000%, count:1) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 609 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 619 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 629 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 639 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0)</t>
+    <t>649 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-22</t>
   </si>
   <si>
-    <t>545 (score:100.0000%, count:1) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0)</t>
+    <t>545 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-23</t>
   </si>
   <si>
-    <t>158 (score:100.0000%, count:1) | 150 (score:0.0000%, count:0) | 151 (score:0.0000%, count:0) | 152 (score:0.0000%, count:0) | 153 (score:0.0000%, count:0) | 154 (score:0.0000%, count:0) | 108 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 118 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 128 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 138 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>158 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-24</t>
   </si>
   <si>
-    <t>016 (score:100.0000%, count:1) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 046 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0)</t>
+    <t>016 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-25</t>
@@ -2041,25 +2041,25 @@
     <t>2026-03-26</t>
   </si>
   <si>
-    <t>230 (score:100.0000%, count:1) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0)</t>
+    <t>230 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-27</t>
   </si>
   <si>
-    <t>621 (score:100.0000%, count:1) | 620 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0)</t>
+    <t>621 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-28</t>
   </si>
   <si>
-    <t>941 (score:100.0000%, count:1) | 940 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0) | 945 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0)</t>
+    <t>941 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-29</t>
   </si>
   <si>
-    <t>046 (score:100.0000%, count:1) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>046 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-03-30</t>
@@ -2068,31 +2068,31 @@
     <t>2026-03-31</t>
   </si>
   <si>
-    <t>845 (score:100.0000%, count:1) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0)</t>
+    <t>845 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-01</t>
   </si>
   <si>
-    <t>124 (score:100.0000%, count:1) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>124 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-02</t>
   </si>
   <si>
-    <t>715 (score:100.0000%, count:1) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 745 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0)</t>
+    <t>715 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-03</t>
   </si>
   <si>
-    <t>148 (score:100.0000%, count:1) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 108 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 118 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 128 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 138 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>148 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-04</t>
   </si>
   <si>
-    <t>211 (score:100.0000%, count:1) | 210 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0)</t>
+    <t>211 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-05</t>
@@ -2104,19 +2104,19 @@
     <t>2026-04-07</t>
   </si>
   <si>
-    <t>430 (score:100.0000%, count:1) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>430 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-08</t>
   </si>
   <si>
-    <t>420 (score:100.0000%, count:1) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>420 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-09</t>
   </si>
   <si>
-    <t>122 (score:100.0000%, count:1) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>122 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-10</t>
@@ -2125,13 +2125,13 @@
     <t>2026-04-11</t>
   </si>
   <si>
-    <t>935 (score:100.0000%, count:1) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 945 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0)</t>
+    <t>935 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-12</t>
   </si>
   <si>
-    <t>330 (score:100.0000%, count:1) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 342 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 345 (score:0.0000%, count:0)</t>
+    <t>330 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-13</t>
@@ -2140,13 +2140,13 @@
     <t>2026-04-14</t>
   </si>
   <si>
-    <t>974 (score:100.0000%, count:1) | 970 (score:0.0000%, count:0) | 971 (score:0.0000%, count:0) | 972 (score:0.0000%, count:0) | 973 (score:0.0000%, count:0) | 975 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0)</t>
+    <t>974 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-15</t>
   </si>
   <si>
-    <t>120 (score:100.0000%, count:1) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>120 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-16</t>
@@ -2155,25 +2155,25 @@
     <t>2026-04-17</t>
   </si>
   <si>
-    <t>400 (score:100.0000%, count:1) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>400 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-18</t>
   </si>
   <si>
-    <t>752 (score:100.0000%, count:1) | 750 (score:0.0000%, count:0) | 751 (score:0.0000%, count:0) | 753 (score:0.0000%, count:0) | 754 (score:0.0000%, count:0) | 755 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>752 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-19</t>
   </si>
   <si>
-    <t>770 (score:100.0000%, count:1) | 771 (score:0.0000%, count:0) | 772 (score:0.0000%, count:0) | 773 (score:0.0000%, count:0) | 774 (score:0.0000%, count:0) | 775 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>770 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-20</t>
   </si>
   <si>
-    <t>919 (score:100.0000%, count:1) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 909 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 929 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 939 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 949 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0)</t>
+    <t>919 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-21</t>
@@ -2185,25 +2185,25 @@
     <t>2026-04-23</t>
   </si>
   <si>
-    <t>226 (score:100.0000%, count:1) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 216 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 246 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>226 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-24</t>
   </si>
   <si>
-    <t>522 (score:100.0000%, count:1) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0)</t>
+    <t>522 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-25</t>
   </si>
   <si>
-    <t>962 (score:100.0000%, count:1) | 960 (score:0.0000%, count:0) | 961 (score:0.0000%, count:0) | 963 (score:0.0000%, count:0) | 964 (score:0.0000%, count:0) | 965 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0)</t>
+    <t>962 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-26</t>
   </si>
   <si>
-    <t>499 (score:100.0000%, count:1) | 490 (score:0.0000%, count:0) | 491 (score:0.0000%, count:0) | 492 (score:0.0000%, count:0) | 493 (score:0.0000%, count:0) | 494 (score:0.0000%, count:0) | 409 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 419 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 429 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 439 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>499 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-27</t>
@@ -2212,31 +2212,31 @@
     <t>2026-04-28</t>
   </si>
   <si>
-    <t>640 (score:100.0000%, count:1) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0)</t>
+    <t>640 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-29</t>
   </si>
   <si>
-    <t>423 (score:100.0000%, count:1) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>423 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-04-30</t>
   </si>
   <si>
-    <t>900 (score:100.0000%, count:1) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0) | 945 (score:0.0000%, count:0)</t>
+    <t>900 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-01</t>
   </si>
   <si>
-    <t>134 (score:3.3333%, count:1) | 208 (score:3.3333%, count:1) | 215 (score:3.3333%, count:1) | 249 (score:3.3333%, count:1) | 266 (score:3.3333%, count:1) | 320 (score:3.3333%, count:1) | 411 (score:3.3333%, count:1) | 420 (score:3.3333%, count:1) | 430 (score:3.3333%, count:1) | 439 (score:3.3333%, count:1) | 442 (score:3.3333%, count:1) | 505 (score:3.3333%, count:1) | 523 (score:3.3333%, count:1) | 535 (score:3.3333%, count:1) | 610 (score:3.3333%, count:1) | 615 (score:3.3333%, count:1) | 617 (score:3.3333%, count:1) | 629 (score:3.3333%, count:1) | 655 (score:3.3333%, count:1) | 735 (score:3.3333%, count:1) | 746 (score:3.3333%, count:1) | 753 (score:3.3333%, count:1) | 755 (score:3.3333%, count:1) | 828 (score:3.3333%, count:1) | 860 (score:3.3333%, count:1) | 939 (score:3.3333%, count:1) | 948 (score:3.3333%, count:1) | 956 (score:3.3333%, count:1) | 012 (score:3.3333%, count:1) | 048 (score:3.3333%, count:1)</t>
+    <t>615 (score:0.369256%, count:1) | 215 (score:0.322589%, count:1) | 735 (score:0.322589%, count:1) | 430 (score:0.302589%, count:1) | 610 (score:0.302589%, count:1) | 415 (score:0.301294%, count:0) | 435 (score:0.301294%, count:0) | 635 (score:0.301294%, count:0) | 655 (score:0.291478%, count:1) | 535 (score:0.275922%, count:1) | 420 (score:0.274811%, count:1) | 439 (score:0.269256%, count:1) | 425 (score:0.262406%, count:0) | 445 (score:0.262406%, count:0) | 625 (score:0.262406%, count:0) | 645 (score:0.262406%, count:0) | 755 (score:0.260367%, count:1) | 235 (score:0.254628%, count:0) | 715 (score:0.254628%, count:0) | 629 (score:0.247033%, count:1) | 410 (score:0.234628%, count:0) | 630 (score:0.234628%, count:0) | 249 (score:0.224811%, count:1) | 225 (score:0.223517%, count:0) | 245 (score:0.223517%, count:0) | 455 (score:0.223517%, count:0) | 725 (score:0.223517%, count:0) | 745 (score:0.223517%, count:0) | 939 (score:0.215922%, count:1) | 515 (score:0.207961%, count:0) | 915 (score:0.207961%, count:0) | 935 (score:0.207961%, count:0) | 440 (score:0.206850%, count:0) | 620 (score:0.206850%, count:0) | 640 (score:0.206850%, count:0) | 746 (score:0.202589%, count:1) | 948 (score:0.202589%, count:1) | 210 (score:0.201294%, count:0) | 230 (score:0.201294%, count:0) | 418 (score:0.201294%, count:0) | 419 (score:0.201294%, count:0) | 438 (score:0.201294%, count:0) | 618 (score:0.201294%, count:0) | 619 (score:0.201294%, count:0) | 638 (score:0.201294%, count:0) | 639 (score:0.201294%, count:0) | 710 (score:0.201294%, count:0) | 730 (score:0.201294%, count:0) | 255 (score:0.192406%, count:0) | 442 (score:0.191478%, count:1)</t>
   </si>
   <si>
     <t>2026-05-02</t>
   </si>
   <si>
-    <t>828 (score:100.0000%, count:1) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 808 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 818 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 838 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 848 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0)</t>
+    <t>828 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-03</t>
@@ -2245,7 +2245,7 @@
     <t>2026-05-04</t>
   </si>
   <si>
-    <t>012 (score:100.0000%, count:1) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 045 (score:0.0000%, count:0)</t>
+    <t>012 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-05</t>
@@ -2254,61 +2254,61 @@
     <t>2026-05-06</t>
   </si>
   <si>
-    <t>215 (score:100.0000%, count:1) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>215 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-07</t>
   </si>
   <si>
-    <t>735 (score:100.0000%, count:1) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 745 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0)</t>
+    <t>735 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-08</t>
   </si>
   <si>
-    <t>442 (score:100.0000%, count:1) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0)</t>
+    <t>442 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-09</t>
   </si>
   <si>
-    <t>320 (score:100.0000%, count:1) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 342 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 345 (score:0.0000%, count:0)</t>
+    <t>320 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-10</t>
   </si>
   <si>
-    <t>629 (score:100.0000%, count:1) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 609 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 619 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 639 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 649 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0)</t>
+    <t>629 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-11</t>
   </si>
   <si>
-    <t>535 (score:100.0000%, count:1) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0)</t>
+    <t>535 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-12</t>
   </si>
   <si>
-    <t>939 (score:100.0000%, count:1) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 909 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 919 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 929 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 949 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0)</t>
+    <t>939 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-13</t>
   </si>
   <si>
-    <t>746 (score:100.0000%, count:1) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0) | 706 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 716 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 726 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 736 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>746 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-14</t>
   </si>
   <si>
-    <t>860 (score:100.0000%, count:1) | 861 (score:0.0000%, count:0) | 862 (score:0.0000%, count:0) | 863 (score:0.0000%, count:0) | 864 (score:0.0000%, count:0) | 865 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>860 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-15</t>
   </si>
   <si>
-    <t>523 (score:100.0000%, count:1) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0)</t>
+    <t>523 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-16</t>
@@ -2317,7 +2317,7 @@
     <t>2026-05-17</t>
   </si>
   <si>
-    <t>615 (score:100.0000%, count:1) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0)</t>
+    <t>615 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-18</t>
@@ -2326,37 +2326,37 @@
     <t>2026-05-19</t>
   </si>
   <si>
-    <t>755 (score:100.0000%, count:1) | 750 (score:0.0000%, count:0) | 751 (score:0.0000%, count:0) | 752 (score:0.0000%, count:0) | 753 (score:0.0000%, count:0) | 754 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>755 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-20</t>
   </si>
   <si>
-    <t>753 (score:100.0000%, count:1) | 750 (score:0.0000%, count:0) | 751 (score:0.0000%, count:0) | 752 (score:0.0000%, count:0) | 754 (score:0.0000%, count:0) | 755 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>753 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-21</t>
   </si>
   <si>
-    <t>208 (score:100.0000%, count:1) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 218 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 228 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 238 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 248 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>208 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-22</t>
   </si>
   <si>
-    <t>617 (score:100.0000%, count:1) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 607 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 627 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 637 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 647 (score:0.0000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0)</t>
+    <t>617 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-23</t>
   </si>
   <si>
-    <t>439 (score:100.0000%, count:1) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 409 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 419 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 429 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 449 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0)</t>
+    <t>439 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-24</t>
   </si>
   <si>
-    <t>411 (score:100.0000%, count:1) | 410 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>411 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-25</t>
@@ -2365,877 +2365,877 @@
     <t>2026-05-26</t>
   </si>
   <si>
-    <t>956 (score:100.0000%, count:1) | 950 (score:0.0000%, count:0) | 951 (score:0.0000%, count:0) | 952 (score:0.0000%, count:0) | 953 (score:0.0000%, count:0) | 954 (score:0.0000%, count:0) | 906 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 916 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 926 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 936 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>956 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-27</t>
   </si>
   <si>
-    <t>134 (score:100.0000%, count:1) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0)</t>
+    <t>134 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-28</t>
   </si>
   <si>
-    <t>266 (score:100.0000%, count:1) | 260 (score:0.0000%, count:0) | 261 (score:0.0000%, count:0) | 262 (score:0.0000%, count:0) | 263 (score:0.0000%, count:0) | 264 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 216 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>266 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-29</t>
   </si>
   <si>
-    <t>249 (score:100.0000%, count:1) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 229 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 239 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>249 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-30</t>
   </si>
   <si>
-    <t>948 (score:100.0000%, count:1) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0) | 908 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 918 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 928 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 938 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>948 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-05-31</t>
   </si>
   <si>
-    <t>655 (score:100.0000%, count:1) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 652 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0)</t>
+    <t>655 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-06-01</t>
   </si>
   <si>
-    <t>949 (score:50.0000%, count:1) | 061 (score:50.0000%, count:1) | 041 (score:12.5000%, count:0) | 049 (score:12.5000%, count:0) | 069 (score:12.5000%, count:0) | 941 (score:12.5000%, count:0) | 961 (score:12.5000%, count:0) | 969 (score:12.5000%, count:0) | 040 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 060 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 063 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0)</t>
+    <t>949 (score:3.889721%, count:1) | 061 (score:3.889721%, count:1) | 941 (score:3.819860%, count:0) | 961 (score:3.819860%, count:0) | 969 (score:3.819860%, count:0) | 041 (score:3.819860%, count:0) | 049 (score:3.819860%, count:0) | 069 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-02</t>
   </si>
   <si>
-    <t>290 (score:50.0000%, count:1) | 952 (score:50.0000%, count:1) | 250 (score:12.5000%, count:0) | 252 (score:12.5000%, count:0) | 292 (score:12.5000%, count:0) | 950 (score:12.5000%, count:0) | 990 (score:12.5000%, count:0) | 992 (score:12.5000%, count:0) | 251 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 254 (score:0.0000%, count:0) | 255 (score:0.0000%, count:0) | 291 (score:0.0000%, count:0) | 293 (score:0.0000%, count:0) | 294 (score:0.0000%, count:0) | 295 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0)</t>
+    <t>290 (score:3.889721%, count:1) | 952 (score:3.889721%, count:1) | 250 (score:3.819860%, count:0) | 252 (score:3.819860%, count:0) | 292 (score:3.819860%, count:0) | 950 (score:3.819860%, count:0) | 990 (score:3.819860%, count:0) | 992 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-03</t>
   </si>
   <si>
-    <t>495 (score:50.0000%, count:1) | 650 (score:50.0000%, count:1) | 450 (score:12.5000%, count:0) | 455 (score:12.5000%, count:0) | 490 (score:12.5000%, count:0) | 655 (score:12.5000%, count:0) | 690 (score:12.5000%, count:0) | 695 (score:12.5000%, count:0) | 451 (score:0.0000%, count:0) | 452 (score:0.0000%, count:0) | 453 (score:0.0000%, count:0) | 454 (score:0.0000%, count:0) | 491 (score:0.0000%, count:0) | 492 (score:0.0000%, count:0) | 493 (score:0.0000%, count:0) | 494 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0)</t>
+    <t>495 (score:3.889721%, count:1) | 650 (score:3.889721%, count:1) | 450 (score:3.819860%, count:0) | 455 (score:3.819860%, count:0) | 490 (score:3.819860%, count:0) | 655 (score:3.819860%, count:0) | 690 (score:3.819860%, count:0) | 695 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-04</t>
   </si>
   <si>
-    <t>665 (score:50.0000%, count:1) | 715 (score:50.0000%, count:1) | 615 (score:25.0000%, count:0) | 765 (score:25.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 660 (score:0.0000%, count:0) | 661 (score:0.0000%, count:0) | 662 (score:0.0000%, count:0) | 663 (score:0.0000%, count:0) | 664 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0)</t>
+    <t>665 (score:7.639721%, count:1) | 715 (score:7.639721%, count:1) | 615 (score:7.569860%, count:0) | 765 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-05</t>
   </si>
   <si>
-    <t>138 (score:50.0000%, count:1) | 017 (score:50.0000%, count:1) | 018 (score:12.5000%, count:0) | 037 (score:12.5000%, count:0) | 038 (score:12.5000%, count:0) | 117 (score:12.5000%, count:0) | 118 (score:12.5000%, count:0) | 137 (score:12.5000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 007 (score:0.0000%, count:0) | 008 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 027 (score:0.0000%, count:0) | 028 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 047 (score:0.0000%, count:0) | 048 (score:0.0000%, count:0)</t>
+    <t>138 (score:3.889721%, count:1) | 017 (score:3.889721%, count:1) | 117 (score:3.819860%, count:0) | 118 (score:3.819860%, count:0) | 137 (score:3.819860%, count:0) | 018 (score:3.819860%, count:0) | 037 (score:3.819860%, count:0) | 038 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-06</t>
   </si>
   <si>
-    <t>578 (score:50.0000%, count:1) | 796 (score:50.0000%, count:1) | 576 (score:12.5000%, count:0) | 596 (score:12.5000%, count:0) | 598 (score:12.5000%, count:0) | 776 (score:12.5000%, count:0) | 778 (score:12.5000%, count:0) | 798 (score:12.5000%, count:0) | 570 (score:0.0000%, count:0) | 571 (score:0.0000%, count:0) | 572 (score:0.0000%, count:0) | 573 (score:0.0000%, count:0) | 590 (score:0.0000%, count:0) | 591 (score:0.0000%, count:0) | 592 (score:0.0000%, count:0) | 593 (score:0.0000%, count:0) | 506 (score:0.0000%, count:0) | 508 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 516 (score:0.0000%, count:0) | 518 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 526 (score:0.0000%, count:0) | 528 (score:0.0000%, count:0)</t>
+    <t>578 (score:3.889721%, count:1) | 796 (score:3.889721%, count:1) | 576 (score:3.819860%, count:0) | 596 (score:3.819860%, count:0) | 598 (score:3.819860%, count:0) | 776 (score:3.819860%, count:0) | 778 (score:3.819860%, count:0) | 798 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-07</t>
   </si>
   <si>
-    <t>205 (score:50.0000%, count:1) | 909 (score:50.0000%, count:1) | 209 (score:25.0000%, count:0) | 905 (score:25.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 229 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 239 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0) | 249 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0)</t>
+    <t>205 (score:7.639721%, count:1) | 909 (score:7.639721%, count:1) | 209 (score:7.569860%, count:0) | 905 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-08</t>
   </si>
   <si>
-    <t>348 (score:50.0000%, count:1) | 910 (score:50.0000%, count:1) | 310 (score:12.5000%, count:0) | 318 (score:12.5000%, count:0) | 340 (score:12.5000%, count:0) | 918 (score:12.5000%, count:0) | 940 (score:12.5000%, count:0) | 948 (score:12.5000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 342 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 308 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 328 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 338 (score:0.0000%, count:0)</t>
+    <t>348 (score:3.889721%, count:1) | 910 (score:3.889721%, count:1) | 310 (score:3.819860%, count:0) | 318 (score:3.819860%, count:0) | 340 (score:3.819860%, count:0) | 918 (score:3.819860%, count:0) | 940 (score:3.819860%, count:0) | 948 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-09</t>
   </si>
   <si>
-    <t>734 (score:50.0000%, count:1) | 044 (score:50.0000%, count:1) | 034 (score:25.0000%, count:0) | 744 (score:25.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 045 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0)</t>
+    <t>734 (score:7.639721%, count:1) | 044 (score:7.639721%, count:1) | 744 (score:7.569860%, count:0) | 034 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-10</t>
   </si>
   <si>
-    <t>246 (score:50.0000%, count:1) | 889 (score:50.0000%, count:1) | 249 (score:12.5000%, count:0) | 286 (score:12.5000%, count:0) | 289 (score:12.5000%, count:0) | 846 (score:12.5000%, count:0) | 849 (score:12.5000%, count:0) | 886 (score:12.5000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 280 (score:0.0000%, count:0) | 281 (score:0.0000%, count:0) | 282 (score:0.0000%, count:0) | 283 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 216 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0) | 229 (score:0.0000%, count:0)</t>
+    <t>246 (score:3.889721%, count:1) | 889 (score:3.889721%, count:1) | 249 (score:3.819860%, count:0) | 286 (score:3.819860%, count:0) | 289 (score:3.819860%, count:0) | 846 (score:3.819860%, count:0) | 849 (score:3.819860%, count:0) | 886 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-11</t>
   </si>
   <si>
-    <t>274 (score:50.0000%, count:1) | 932 (score:50.0000%, count:1) | 232 (score:12.5000%, count:0) | 234 (score:12.5000%, count:0) | 272 (score:12.5000%, count:0) | 934 (score:12.5000%, count:0) | 972 (score:12.5000%, count:0) | 974 (score:12.5000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 275 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0)</t>
+    <t>274 (score:3.889721%, count:1) | 932 (score:3.889721%, count:1) | 232 (score:3.819860%, count:0) | 234 (score:3.819860%, count:0) | 272 (score:3.819860%, count:0) | 934 (score:3.819860%, count:0) | 972 (score:3.819860%, count:0) | 974 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-12</t>
   </si>
   <si>
-    <t>574 (score:50.0000%, count:1) | 804 (score:50.0000%, count:1) | 504 (score:25.0000%, count:0) | 874 (score:25.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 570 (score:0.0000%, count:0) | 571 (score:0.0000%, count:0) | 572 (score:0.0000%, count:0) | 573 (score:0.0000%, count:0) | 575 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0)</t>
+    <t>574 (score:7.639721%, count:1) | 804 (score:7.639721%, count:1) | 504 (score:7.569860%, count:0) | 874 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-13</t>
   </si>
   <si>
-    <t>542 (score:50.0000%, count:1) | 021 (score:50.0000%, count:1) | 022 (score:12.5000%, count:0) | 041 (score:12.5000%, count:0) | 042 (score:12.5000%, count:0) | 521 (score:12.5000%, count:0) | 522 (score:12.5000%, count:0) | 541 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 045 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0)</t>
+    <t>542 (score:3.889721%, count:1) | 021 (score:3.889721%, count:1) | 521 (score:3.819860%, count:0) | 522 (score:3.819860%, count:0) | 541 (score:3.819860%, count:0) | 022 (score:3.819860%, count:0) | 041 (score:3.819860%, count:0) | 042 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-14</t>
   </si>
   <si>
-    <t>311 (score:50.0000%, count:1) | 555 (score:50.0000%, count:1) | 315 (score:12.5000%, count:0) | 351 (score:12.5000%, count:0) | 355 (score:12.5000%, count:0) | 511 (score:12.5000%, count:0) | 515 (score:12.5000%, count:0) | 551 (score:12.5000%, count:0) | 310 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 350 (score:0.0000%, count:0) | 352 (score:0.0000%, count:0) | 353 (score:0.0000%, count:0) | 354 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0)</t>
+    <t>311 (score:3.889721%, count:1) | 555 (score:3.889721%, count:1) | 315 (score:3.819860%, count:0) | 351 (score:3.819860%, count:0) | 355 (score:3.819860%, count:0) | 511 (score:3.819860%, count:0) | 515 (score:3.819860%, count:0) | 551 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-15</t>
   </si>
   <si>
-    <t>727 (score:50.0000%, count:1) | 099 (score:50.0000%, count:1) | 027 (score:12.5000%, count:0) | 029 (score:12.5000%, count:0) | 097 (score:12.5000%, count:0) | 729 (score:12.5000%, count:0) | 797 (score:12.5000%, count:0) | 799 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 090 (score:0.0000%, count:0) | 091 (score:0.0000%, count:0) | 092 (score:0.0000%, count:0) | 093 (score:0.0000%, count:0) | 007 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 037 (score:0.0000%, count:0) | 039 (score:0.0000%, count:0)</t>
+    <t>727 (score:3.889721%, count:1) | 099 (score:3.889721%, count:1) | 729 (score:3.819860%, count:0) | 797 (score:3.819860%, count:0) | 799 (score:3.819860%, count:0) | 027 (score:3.819860%, count:0) | 029 (score:3.819860%, count:0) | 097 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-16</t>
   </si>
   <si>
-    <t>153 (score:50.0000%, count:1) | 065 (score:50.0000%, count:1) | 053 (score:12.5000%, count:0) | 055 (score:12.5000%, count:0) | 063 (score:12.5000%, count:0) | 155 (score:12.5000%, count:0) | 163 (score:12.5000%, count:0) | 165 (score:12.5000%, count:0) | 050 (score:0.0000%, count:0) | 051 (score:0.0000%, count:0) | 052 (score:0.0000%, count:0) | 054 (score:0.0000%, count:0) | 060 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0)</t>
+    <t>153 (score:3.889721%, count:1) | 065 (score:3.889721%, count:1) | 155 (score:3.819860%, count:0) | 163 (score:3.819860%, count:0) | 165 (score:3.819860%, count:0) | 053 (score:3.819860%, count:0) | 055 (score:3.819860%, count:0) | 063 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-17</t>
   </si>
   <si>
-    <t>210 (score:50.0000%, count:1) | 927 (score:50.0000%, count:1) | 217 (score:12.5000%, count:0) | 220 (score:12.5000%, count:0) | 227 (score:12.5000%, count:0) | 910 (score:12.5000%, count:0) | 917 (score:12.5000%, count:0) | 920 (score:12.5000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 247 (score:0.0000%, count:0)</t>
+    <t>210 (score:3.889721%, count:1) | 927 (score:3.889721%, count:1) | 217 (score:3.819860%, count:0) | 220 (score:3.819860%, count:0) | 227 (score:3.819860%, count:0) | 910 (score:3.819860%, count:0) | 917 (score:3.819860%, count:0) | 920 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-18</t>
   </si>
   <si>
-    <t>637 (score:50.0000%, count:1) | 080 (score:50.0000%, count:1) | 030 (score:12.5000%, count:0) | 037 (score:12.5000%, count:0) | 087 (score:12.5000%, count:0) | 630 (score:12.5000%, count:0) | 680 (score:12.5000%, count:0) | 687 (score:12.5000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 081 (score:0.0000%, count:0) | 082 (score:0.0000%, count:0) | 083 (score:0.0000%, count:0) | 084 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 007 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 027 (score:0.0000%, count:0)</t>
+    <t>637 (score:3.889721%, count:1) | 080 (score:3.889721%, count:1) | 630 (score:3.819860%, count:0) | 680 (score:3.819860%, count:0) | 687 (score:3.819860%, count:0) | 030 (score:3.819860%, count:0) | 037 (score:3.819860%, count:0) | 087 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-19</t>
   </si>
   <si>
-    <t>176 (score:50.0000%, count:1) | 814 (score:50.0000%, count:1) | 114 (score:12.5000%, count:0) | 116 (score:12.5000%, count:0) | 174 (score:12.5000%, count:0) | 816 (score:12.5000%, count:0) | 874 (score:12.5000%, count:0) | 876 (score:12.5000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 170 (score:0.0000%, count:0) | 171 (score:0.0000%, count:0) | 172 (score:0.0000%, count:0) | 173 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 106 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 126 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 136 (score:0.0000%, count:0)</t>
+    <t>176 (score:3.889721%, count:1) | 814 (score:3.889721%, count:1) | 114 (score:3.819860%, count:0) | 116 (score:3.819860%, count:0) | 174 (score:3.819860%, count:0) | 816 (score:3.819860%, count:0) | 874 (score:3.819860%, count:0) | 876 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-20</t>
   </si>
   <si>
-    <t>754 (score:50.0000%, count:1) | 790 (score:50.0000%, count:1) | 750 (score:25.0000%, count:0) | 794 (score:25.0000%, count:0) | 751 (score:0.0000%, count:0) | 752 (score:0.0000%, count:0) | 753 (score:0.0000%, count:0) | 755 (score:0.0000%, count:0) | 791 (score:0.0000%, count:0) | 792 (score:0.0000%, count:0) | 793 (score:0.0000%, count:0) | 795 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0)</t>
+    <t>754 (score:7.639721%, count:1) | 790 (score:7.639721%, count:1) | 750 (score:7.569860%, count:0) | 794 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-21</t>
   </si>
   <si>
-    <t>197 (score:50.0000%, count:1) | 950 (score:50.0000%, count:1) | 150 (score:12.5000%, count:0) | 157 (score:12.5000%, count:0) | 190 (score:12.5000%, count:0) | 957 (score:12.5000%, count:0) | 990 (score:12.5000%, count:0) | 997 (score:12.5000%, count:0) | 151 (score:0.0000%, count:0) | 152 (score:0.0000%, count:0) | 153 (score:0.0000%, count:0) | 154 (score:0.0000%, count:0) | 191 (score:0.0000%, count:0) | 192 (score:0.0000%, count:0) | 193 (score:0.0000%, count:0) | 194 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0)</t>
+    <t>197 (score:3.889721%, count:1) | 950 (score:3.889721%, count:1) | 150 (score:3.819860%, count:0) | 157 (score:3.819860%, count:0) | 190 (score:3.819860%, count:0) | 957 (score:3.819860%, count:0) | 990 (score:3.819860%, count:0) | 997 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-22</t>
   </si>
   <si>
-    <t>251 (score:50.0000%, count:1) | 706 (score:50.0000%, count:1) | 201 (score:12.5000%, count:0) | 206 (score:12.5000%, count:0) | 256 (score:12.5000%, count:0) | 701 (score:12.5000%, count:0) | 751 (score:12.5000%, count:0) | 756 (score:12.5000%, count:0) | 200 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 250 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 254 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 216 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0)</t>
+    <t>251 (score:3.889721%, count:1) | 706 (score:3.889721%, count:1) | 201 (score:3.819860%, count:0) | 206 (score:3.819860%, count:0) | 256 (score:3.819860%, count:0) | 701 (score:3.819860%, count:0) | 751 (score:3.819860%, count:0) | 756 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-23</t>
   </si>
   <si>
-    <t>241 (score:50.0000%, count:1) | 380 (score:50.0000%, count:1) | 240 (score:12.5000%, count:0) | 280 (score:12.5000%, count:0) | 281 (score:12.5000%, count:0) | 340 (score:12.5000%, count:0) | 341 (score:12.5000%, count:0) | 381 (score:12.5000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0) | 282 (score:0.0000%, count:0) | 283 (score:0.0000%, count:0) | 284 (score:0.0000%, count:0) | 285 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0)</t>
+    <t>241 (score:3.889721%, count:1) | 380 (score:3.889721%, count:1) | 240 (score:3.819860%, count:0) | 280 (score:3.819860%, count:0) | 281 (score:3.819860%, count:0) | 340 (score:3.819860%, count:0) | 341 (score:3.819860%, count:0) | 381 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-24</t>
   </si>
   <si>
-    <t>464 (score:50.0000%, count:1) | 639 (score:50.0000%, count:1) | 434 (score:12.5000%, count:0) | 439 (score:12.5000%, count:0) | 469 (score:12.5000%, count:0) | 634 (score:12.5000%, count:0) | 664 (score:12.5000%, count:0) | 669 (score:12.5000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 460 (score:0.0000%, count:0) | 461 (score:0.0000%, count:0) | 462 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 409 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 419 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 429 (score:0.0000%, count:0)</t>
+    <t>464 (score:3.889721%, count:1) | 639 (score:3.889721%, count:1) | 434 (score:3.819860%, count:0) | 439 (score:3.819860%, count:0) | 469 (score:3.819860%, count:0) | 634 (score:3.819860%, count:0) | 664 (score:3.819860%, count:0) | 669 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-25</t>
   </si>
   <si>
-    <t>494 (score:50.0000%, count:1) | 015 (score:50.0000%, count:1) | 014 (score:12.5000%, count:0) | 094 (score:12.5000%, count:0) | 095 (score:12.5000%, count:0) | 414 (score:12.5000%, count:0) | 415 (score:12.5000%, count:0) | 495 (score:12.5000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 090 (score:0.0000%, count:0) | 091 (score:0.0000%, count:0) | 092 (score:0.0000%, count:0) | 093 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0)</t>
+    <t>494 (score:3.889721%, count:1) | 015 (score:3.889721%, count:1) | 414 (score:3.819860%, count:0) | 415 (score:3.819860%, count:0) | 495 (score:3.819860%, count:0) | 014 (score:3.819860%, count:0) | 094 (score:3.819860%, count:0) | 095 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-26</t>
   </si>
   <si>
-    <t>885 (score:50.0000%, count:1) | 920 (score:50.0000%, count:1) | 820 (score:12.5000%, count:0) | 825 (score:12.5000%, count:0) | 880 (score:12.5000%, count:0) | 925 (score:12.5000%, count:0) | 980 (score:12.5000%, count:0) | 985 (score:12.5000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 881 (score:0.0000%, count:0) | 882 (score:0.0000%, count:0) | 883 (score:0.0000%, count:0) | 884 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>885 (score:3.889721%, count:1) | 920 (score:3.889721%, count:1) | 820 (score:3.819860%, count:0) | 825 (score:3.819860%, count:0) | 880 (score:3.819860%, count:0) | 925 (score:3.819860%, count:0) | 980 (score:3.819860%, count:0) | 985 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-27</t>
   </si>
   <si>
-    <t>824 (score:50.0000%, count:1) | 932 (score:50.0000%, count:1) | 822 (score:12.5000%, count:0) | 832 (score:12.5000%, count:0) | 834 (score:12.5000%, count:0) | 922 (score:12.5000%, count:0) | 924 (score:12.5000%, count:0) | 934 (score:12.5000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0)</t>
+    <t>824 (score:3.889721%, count:1) | 932 (score:3.889721%, count:1) | 822 (score:3.819860%, count:0) | 832 (score:3.819860%, count:0) | 834 (score:3.819860%, count:0) | 922 (score:3.819860%, count:0) | 924 (score:3.819860%, count:0) | 934 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-28</t>
   </si>
   <si>
-    <t>276 (score:50.0000%, count:1) | 518 (score:50.0000%, count:1) | 216 (score:12.5000%, count:0) | 218 (score:12.5000%, count:0) | 278 (score:12.5000%, count:0) | 516 (score:12.5000%, count:0) | 576 (score:12.5000%, count:0) | 578 (score:12.5000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 272 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 208 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0) | 228 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0) | 238 (score:0.0000%, count:0)</t>
+    <t>276 (score:3.889721%, count:1) | 518 (score:3.889721%, count:1) | 216 (score:3.819860%, count:0) | 218 (score:3.819860%, count:0) | 278 (score:3.819860%, count:0) | 516 (score:3.819860%, count:0) | 576 (score:3.819860%, count:0) | 578 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-29</t>
   </si>
   <si>
-    <t>440 (score:50.0000%, count:1) | 666 (score:50.0000%, count:1) | 446 (score:12.5000%, count:0) | 460 (score:12.5000%, count:0) | 466 (score:12.5000%, count:0) | 640 (score:12.5000%, count:0) | 646 (score:12.5000%, count:0) | 660 (score:12.5000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 461 (score:0.0000%, count:0) | 462 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 464 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 406 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 416 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 426 (score:0.0000%, count:0)</t>
+    <t>440 (score:3.889721%, count:1) | 666 (score:3.889721%, count:1) | 446 (score:3.819860%, count:0) | 460 (score:3.819860%, count:0) | 466 (score:3.819860%, count:0) | 640 (score:3.819860%, count:0) | 646 (score:3.819860%, count:0) | 660 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-06-30</t>
   </si>
   <si>
-    <t>974 (score:50.0000%, count:1) | 027 (score:50.0000%, count:1) | 024 (score:12.5000%, count:0) | 074 (score:12.5000%, count:0) | 077 (score:12.5000%, count:0) | 924 (score:12.5000%, count:0) | 927 (score:12.5000%, count:0) | 977 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 070 (score:0.0000%, count:0) | 071 (score:0.0000%, count:0) | 072 (score:0.0000%, count:0) | 073 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 007 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 037 (score:0.0000%, count:0)</t>
+    <t>974 (score:3.889721%, count:1) | 027 (score:3.889721%, count:1) | 924 (score:3.819860%, count:0) | 927 (score:3.819860%, count:0) | 977 (score:3.819860%, count:0) | 024 (score:3.819860%, count:0) | 074 (score:3.819860%, count:0) | 077 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-01</t>
   </si>
   <si>
-    <t>372 (score:50.0000%, count:1) | 441 (score:50.0000%, count:1) | 341 (score:12.5000%, count:0) | 342 (score:12.5000%, count:0) | 371 (score:12.5000%, count:0) | 442 (score:12.5000%, count:0) | 471 (score:12.5000%, count:0) | 472 (score:12.5000%, count:0) | 340 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0) | 345 (score:0.0000%, count:0) | 370 (score:0.0000%, count:0) | 373 (score:0.0000%, count:0) | 374 (score:0.0000%, count:0) | 375 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0)</t>
+    <t>372 (score:3.889721%, count:1) | 441 (score:3.889721%, count:1) | 341 (score:3.819860%, count:0) | 342 (score:3.819860%, count:0) | 371 (score:3.819860%, count:0) | 442 (score:3.819860%, count:0) | 471 (score:3.819860%, count:0) | 472 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-02</t>
   </si>
   <si>
-    <t>192 (score:50.0000%, count:1) | 667 (score:50.0000%, count:1) | 162 (score:12.5000%, count:0) | 167 (score:12.5000%, count:0) | 197 (score:12.5000%, count:0) | 662 (score:12.5000%, count:0) | 692 (score:12.5000%, count:0) | 697 (score:12.5000%, count:0) | 160 (score:0.0000%, count:0) | 161 (score:0.0000%, count:0) | 163 (score:0.0000%, count:0) | 164 (score:0.0000%, count:0) | 190 (score:0.0000%, count:0) | 191 (score:0.0000%, count:0) | 193 (score:0.0000%, count:0) | 194 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0)</t>
+    <t>192 (score:3.889721%, count:1) | 667 (score:3.889721%, count:1) | 162 (score:3.819860%, count:0) | 167 (score:3.819860%, count:0) | 197 (score:3.819860%, count:0) | 662 (score:3.819860%, count:0) | 692 (score:3.819860%, count:0) | 697 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-03</t>
   </si>
   <si>
-    <t>114 (score:50.0000%, count:1) | 912 (score:50.0000%, count:1) | 112 (score:25.0000%, count:0) | 914 (score:25.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0)</t>
+    <t>114 (score:7.639721%, count:1) | 912 (score:7.639721%, count:1) | 112 (score:7.569860%, count:0) | 914 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0) | 147 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-04</t>
   </si>
   <si>
-    <t>657 (score:50.0000%, count:1) | 682 (score:50.0000%, count:1) | 652 (score:25.0000%, count:0) | 687 (score:25.0000%, count:0) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 680 (score:0.0000%, count:0) | 681 (score:0.0000%, count:0) | 683 (score:0.0000%, count:0) | 684 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 607 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 617 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 627 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0)</t>
+    <t>657 (score:7.639721%, count:1) | 682 (score:7.639721%, count:1) | 652 (score:7.569860%, count:0) | 687 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-05</t>
   </si>
   <si>
-    <t>227 (score:50.0000%, count:1) | 811 (score:50.0000%, count:1) | 211 (score:12.5000%, count:0) | 217 (score:12.5000%, count:0) | 221 (score:12.5000%, count:0) | 817 (score:12.5000%, count:0) | 821 (score:12.5000%, count:0) | 827 (score:12.5000%, count:0) | 210 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 247 (score:0.0000%, count:0)</t>
+    <t>227 (score:3.889721%, count:1) | 811 (score:3.889721%, count:1) | 211 (score:3.819860%, count:0) | 217 (score:3.819860%, count:0) | 221 (score:3.819860%, count:0) | 817 (score:3.819860%, count:0) | 821 (score:3.819860%, count:0) | 827 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-06</t>
   </si>
   <si>
-    <t>869 (score:50.0000%, count:1) | 046 (score:50.0000%, count:1) | 049 (score:12.5000%, count:0) | 066 (score:12.5000%, count:0) | 069 (score:12.5000%, count:0) | 846 (score:12.5000%, count:0) | 849 (score:12.5000%, count:0) | 866 (score:12.5000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 060 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 063 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0)</t>
+    <t>869 (score:3.889721%, count:1) | 046 (score:3.889721%, count:1) | 846 (score:3.819860%, count:0) | 849 (score:3.819860%, count:0) | 866 (score:3.819860%, count:0) | 049 (score:3.819860%, count:0) | 066 (score:3.819860%, count:0) | 069 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-07</t>
   </si>
   <si>
-    <t>119 (score:50.0000%, count:1) | 729 (score:50.0000%, count:1) | 129 (score:25.0000%, count:0) | 719 (score:25.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 109 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 139 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 149 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0)</t>
+    <t>119 (score:7.639721%, count:1) | 729 (score:7.639721%, count:1) | 129 (score:7.569860%, count:0) | 719 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0) | 147 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-08</t>
   </si>
   <si>
-    <t>140 (score:50.0000%, count:1) | 331 (score:50.0000%, count:1) | 130 (score:12.5000%, count:0) | 131 (score:12.5000%, count:0) | 141 (score:12.5000%, count:0) | 330 (score:12.5000%, count:0) | 340 (score:12.5000%, count:0) | 341 (score:12.5000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 145 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0)</t>
+    <t>140 (score:3.889721%, count:1) | 331 (score:3.889721%, count:1) | 130 (score:3.819860%, count:0) | 131 (score:3.819860%, count:0) | 141 (score:3.819860%, count:0) | 330 (score:3.819860%, count:0) | 340 (score:3.819860%, count:0) | 341 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-09</t>
   </si>
   <si>
-    <t>124 (score:50.0000%, count:1) | 954 (score:50.0000%, count:1) | 154 (score:25.0000%, count:0) | 924 (score:25.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 150 (score:0.0000%, count:0) | 151 (score:0.0000%, count:0) | 152 (score:0.0000%, count:0) | 153 (score:0.0000%, count:0) | 155 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0)</t>
+    <t>124 (score:7.639721%, count:1) | 954 (score:7.639721%, count:1) | 154 (score:7.569860%, count:0) | 924 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-10</t>
   </si>
   <si>
-    <t>553 (score:50.0000%, count:1) | 766 (score:50.0000%, count:1) | 556 (score:12.5000%, count:0) | 563 (score:12.5000%, count:0) | 566 (score:12.5000%, count:0) | 753 (score:12.5000%, count:0) | 756 (score:12.5000%, count:0) | 763 (score:12.5000%, count:0) | 550 (score:0.0000%, count:0) | 551 (score:0.0000%, count:0) | 552 (score:0.0000%, count:0) | 554 (score:0.0000%, count:0) | 560 (score:0.0000%, count:0) | 561 (score:0.0000%, count:0) | 562 (score:0.0000%, count:0) | 564 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 506 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 516 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 526 (score:0.0000%, count:0)</t>
+    <t>553 (score:3.889721%, count:1) | 766 (score:3.889721%, count:1) | 556 (score:3.819860%, count:0) | 563 (score:3.819860%, count:0) | 566 (score:3.819860%, count:0) | 753 (score:3.819860%, count:0) | 756 (score:3.819860%, count:0) | 763 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-11</t>
   </si>
   <si>
-    <t>561 (score:50.0000%, count:1) | 904 (score:50.0000%, count:1) | 501 (score:12.5000%, count:0) | 504 (score:12.5000%, count:0) | 564 (score:12.5000%, count:0) | 901 (score:12.5000%, count:0) | 961 (score:12.5000%, count:0) | 964 (score:12.5000%, count:0) | 500 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 560 (score:0.0000%, count:0) | 562 (score:0.0000%, count:0) | 563 (score:0.0000%, count:0) | 565 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0)</t>
+    <t>561 (score:3.889721%, count:1) | 904 (score:3.889721%, count:1) | 501 (score:3.819860%, count:0) | 504 (score:3.819860%, count:0) | 564 (score:3.819860%, count:0) | 901 (score:3.819860%, count:0) | 961 (score:3.819860%, count:0) | 964 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-12</t>
   </si>
   <si>
-    <t>538 (score:50.0000%, count:1) | 007 (score:50.0000%, count:1) | 008 (score:12.5000%, count:0) | 037 (score:12.5000%, count:0) | 038 (score:12.5000%, count:0) | 507 (score:12.5000%, count:0) | 508 (score:12.5000%, count:0) | 537 (score:12.5000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 027 (score:0.0000%, count:0) | 028 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 047 (score:0.0000%, count:0) | 048 (score:0.0000%, count:0)</t>
+    <t>538 (score:3.889721%, count:1) | 007 (score:3.889721%, count:1) | 507 (score:3.819860%, count:0) | 508 (score:3.819860%, count:0) | 537 (score:3.819860%, count:0) | 008 (score:3.819860%, count:0) | 037 (score:3.819860%, count:0) | 038 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-13</t>
   </si>
   <si>
-    <t>492 (score:50.0000%, count:1) | 784 (score:50.0000%, count:1) | 482 (score:12.5000%, count:0) | 484 (score:12.5000%, count:0) | 494 (score:12.5000%, count:0) | 782 (score:12.5000%, count:0) | 792 (score:12.5000%, count:0) | 794 (score:12.5000%, count:0) | 480 (score:0.0000%, count:0) | 481 (score:0.0000%, count:0) | 483 (score:0.0000%, count:0) | 485 (score:0.0000%, count:0) | 490 (score:0.0000%, count:0) | 491 (score:0.0000%, count:0) | 493 (score:0.0000%, count:0) | 495 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0)</t>
+    <t>492 (score:3.889721%, count:1) | 784 (score:3.889721%, count:1) | 482 (score:3.819860%, count:0) | 484 (score:3.819860%, count:0) | 494 (score:3.819860%, count:0) | 782 (score:3.819860%, count:0) | 792 (score:3.819860%, count:0) | 794 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-14</t>
   </si>
   <si>
-    <t>324 (score:50.0000%, count:1) | 046 (score:50.0000%, count:1) | 024 (score:12.5000%, count:0) | 026 (score:12.5000%, count:0) | 044 (score:12.5000%, count:0) | 326 (score:12.5000%, count:0) | 344 (score:12.5000%, count:0) | 346 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0)</t>
+    <t>324 (score:3.889721%, count:1) | 046 (score:3.889721%, count:1) | 326 (score:3.819860%, count:0) | 344 (score:3.819860%, count:0) | 346 (score:3.819860%, count:0) | 024 (score:3.819860%, count:0) | 026 (score:3.819860%, count:0) | 044 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-15</t>
   </si>
   <si>
-    <t>278 (score:50.0000%, count:1) | 832 (score:50.0000%, count:1) | 232 (score:12.5000%, count:0) | 238 (score:12.5000%, count:0) | 272 (score:12.5000%, count:0) | 838 (score:12.5000%, count:0) | 872 (score:12.5000%, count:0) | 878 (score:12.5000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 208 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 218 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 228 (score:0.0000%, count:0)</t>
+    <t>278 (score:3.889721%, count:1) | 832 (score:3.889721%, count:1) | 232 (score:3.819860%, count:0) | 238 (score:3.819860%, count:0) | 272 (score:3.819860%, count:0) | 838 (score:3.819860%, count:0) | 872 (score:3.819860%, count:0) | 878 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-16</t>
   </si>
   <si>
-    <t>280 (score:50.0000%, count:1) | 878 (score:50.0000%, count:1) | 270 (score:12.5000%, count:0) | 278 (score:12.5000%, count:0) | 288 (score:12.5000%, count:0) | 870 (score:12.5000%, count:0) | 880 (score:12.5000%, count:0) | 888 (score:12.5000%, count:0) | 271 (score:0.0000%, count:0) | 272 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 281 (score:0.0000%, count:0) | 282 (score:0.0000%, count:0) | 283 (score:0.0000%, count:0) | 284 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 208 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 218 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 228 (score:0.0000%, count:0)</t>
+    <t>280 (score:3.889721%, count:1) | 878 (score:3.889721%, count:1) | 270 (score:3.819860%, count:0) | 278 (score:3.819860%, count:0) | 288 (score:3.819860%, count:0) | 870 (score:3.819860%, count:0) | 880 (score:3.819860%, count:0) | 888 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-17</t>
   </si>
   <si>
-    <t>272 (score:50.0000%, count:1) | 696 (score:50.0000%, count:1) | 276 (score:12.5000%, count:0) | 292 (score:12.5000%, count:0) | 296 (score:12.5000%, count:0) | 672 (score:12.5000%, count:0) | 676 (score:12.5000%, count:0) | 692 (score:12.5000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 290 (score:0.0000%, count:0) | 291 (score:0.0000%, count:0) | 293 (score:0.0000%, count:0) | 294 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 216 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0)</t>
+    <t>272 (score:3.889721%, count:1) | 696 (score:3.889721%, count:1) | 276 (score:3.819860%, count:0) | 292 (score:3.819860%, count:0) | 296 (score:3.819860%, count:0) | 672 (score:3.819860%, count:0) | 676 (score:3.819860%, count:0) | 692 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-18</t>
   </si>
   <si>
-    <t>706 (score:50.0000%, count:1) | 904 (score:50.0000%, count:1) | 704 (score:25.0000%, count:0) | 906 (score:25.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 716 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 726 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 736 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0) | 746 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0)</t>
+    <t>706 (score:7.639721%, count:1) | 904 (score:7.639721%, count:1) | 704 (score:7.569860%, count:0) | 906 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-19</t>
   </si>
   <si>
-    <t>817 (score:50.0000%, count:1) | 844 (score:50.0000%, count:1) | 814 (score:25.0000%, count:0) | 847 (score:25.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 807 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 827 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 837 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0)</t>
+    <t>817 (score:7.639721%, count:1) | 844 (score:7.639721%, count:1) | 814 (score:7.569860%, count:0) | 847 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-20</t>
   </si>
   <si>
-    <t>440 (score:50.0000%, count:1) | 535 (score:50.0000%, count:1) | 430 (score:12.5000%, count:0) | 435 (score:12.5000%, count:0) | 445 (score:12.5000%, count:0) | 530 (score:12.5000%, count:0) | 540 (score:12.5000%, count:0) | 545 (score:12.5000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0)</t>
+    <t>440 (score:3.889721%, count:1) | 535 (score:3.889721%, count:1) | 430 (score:3.819860%, count:0) | 435 (score:3.819860%, count:0) | 445 (score:3.819860%, count:0) | 530 (score:3.819860%, count:0) | 540 (score:3.819860%, count:0) | 545 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-21</t>
   </si>
   <si>
-    <t>150 (score:50.0000%, count:1) | 337 (score:50.0000%, count:1) | 130 (score:12.5000%, count:0) | 137 (score:12.5000%, count:0) | 157 (score:12.5000%, count:0) | 330 (score:12.5000%, count:0) | 350 (score:12.5000%, count:0) | 357 (score:12.5000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 151 (score:0.0000%, count:0) | 152 (score:0.0000%, count:0) | 153 (score:0.0000%, count:0) | 154 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0)</t>
+    <t>150 (score:3.889721%, count:1) | 337 (score:3.889721%, count:1) | 130 (score:3.819860%, count:0) | 137 (score:3.819860%, count:0) | 157 (score:3.819860%, count:0) | 330 (score:3.819860%, count:0) | 350 (score:3.819860%, count:0) | 357 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-22</t>
   </si>
   <si>
-    <t>353 (score:50.0000%, count:1) | 887 (score:50.0000%, count:1) | 357 (score:12.5000%, count:0) | 383 (score:12.5000%, count:0) | 387 (score:12.5000%, count:0) | 853 (score:12.5000%, count:0) | 857 (score:12.5000%, count:0) | 883 (score:12.5000%, count:0) | 350 (score:0.0000%, count:0) | 351 (score:0.0000%, count:0) | 352 (score:0.0000%, count:0) | 354 (score:0.0000%, count:0) | 380 (score:0.0000%, count:0) | 381 (score:0.0000%, count:0) | 382 (score:0.0000%, count:0) | 384 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 307 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 317 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 327 (score:0.0000%, count:0)</t>
+    <t>353 (score:3.889721%, count:1) | 887 (score:3.889721%, count:1) | 357 (score:3.819860%, count:0) | 383 (score:3.819860%, count:0) | 387 (score:3.819860%, count:0) | 853 (score:3.819860%, count:0) | 857 (score:3.819860%, count:0) | 883 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-23</t>
   </si>
   <si>
-    <t>247 (score:50.0000%, count:1) | 572 (score:50.0000%, count:1) | 242 (score:12.5000%, count:0) | 272 (score:12.5000%, count:0) | 277 (score:12.5000%, count:0) | 542 (score:12.5000%, count:0) | 547 (score:12.5000%, count:0) | 577 (score:12.5000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 227 (score:0.0000%, count:0)</t>
+    <t>247 (score:3.889721%, count:1) | 572 (score:3.889721%, count:1) | 242 (score:3.819860%, count:0) | 272 (score:3.819860%, count:0) | 277 (score:3.819860%, count:0) | 542 (score:3.819860%, count:0) | 547 (score:3.819860%, count:0) | 577 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-24</t>
   </si>
   <si>
-    <t>455 (score:50.0000%, count:1) | 060 (score:50.0000%, count:1) | 050 (score:12.5000%, count:0) | 055 (score:12.5000%, count:0) | 065 (score:12.5000%, count:0) | 450 (score:12.5000%, count:0) | 460 (score:12.5000%, count:0) | 465 (score:12.5000%, count:0) | 051 (score:0.0000%, count:0) | 052 (score:0.0000%, count:0) | 053 (score:0.0000%, count:0) | 054 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 063 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0)</t>
+    <t>455 (score:3.889721%, count:1) | 060 (score:3.889721%, count:1) | 450 (score:3.819860%, count:0) | 460 (score:3.819860%, count:0) | 465 (score:3.819860%, count:0) | 050 (score:3.819860%, count:0) | 055 (score:3.819860%, count:0) | 065 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-25</t>
   </si>
   <si>
-    <t>789 (score:50.0000%, count:1) | 801 (score:50.0000%, count:1) | 701 (score:12.5000%, count:0) | 709 (score:12.5000%, count:0) | 781 (score:12.5000%, count:0) | 809 (score:12.5000%, count:0) | 881 (score:12.5000%, count:0) | 889 (score:12.5000%, count:0) | 700 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 780 (score:0.0000%, count:0) | 782 (score:0.0000%, count:0) | 783 (score:0.0000%, count:0) | 784 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 719 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 729 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 739 (score:0.0000%, count:0)</t>
+    <t>789 (score:3.889721%, count:1) | 801 (score:3.889721%, count:1) | 701 (score:3.819860%, count:0) | 709 (score:3.819860%, count:0) | 781 (score:3.819860%, count:0) | 809 (score:3.819860%, count:0) | 881 (score:3.819860%, count:0) | 889 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-26</t>
   </si>
   <si>
-    <t>802 (score:50.0000%, count:1) | 960 (score:50.0000%, count:1) | 800 (score:12.5000%, count:0) | 860 (score:12.5000%, count:0) | 862 (score:12.5000%, count:0) | 900 (score:12.5000%, count:0) | 902 (score:12.5000%, count:0) | 962 (score:12.5000%, count:0) | 801 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 861 (score:0.0000%, count:0) | 863 (score:0.0000%, count:0) | 864 (score:0.0000%, count:0) | 865 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0)</t>
+    <t>802 (score:3.889721%, count:1) | 960 (score:3.889721%, count:1) | 800 (score:3.819860%, count:0) | 860 (score:3.819860%, count:0) | 862 (score:3.819860%, count:0) | 900 (score:3.819860%, count:0) | 902 (score:3.819860%, count:0) | 962 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-27</t>
   </si>
   <si>
-    <t>716 (score:50.0000%, count:1) | 045 (score:50.0000%, count:1) | 015 (score:12.5000%, count:0) | 016 (score:12.5000%, count:0) | 046 (score:12.5000%, count:0) | 715 (score:12.5000%, count:0) | 745 (score:12.5000%, count:0) | 746 (score:12.5000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0)</t>
+    <t>716 (score:3.889721%, count:1) | 045 (score:3.889721%, count:1) | 715 (score:3.819860%, count:0) | 745 (score:3.819860%, count:0) | 746 (score:3.819860%, count:0) | 015 (score:3.819860%, count:0) | 016 (score:3.819860%, count:0) | 046 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-28</t>
   </si>
   <si>
-    <t>368 (score:50.0000%, count:1) | 412 (score:50.0000%, count:1) | 312 (score:12.5000%, count:0) | 318 (score:12.5000%, count:0) | 362 (score:12.5000%, count:0) | 418 (score:12.5000%, count:0) | 462 (score:12.5000%, count:0) | 468 (score:12.5000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 360 (score:0.0000%, count:0) | 361 (score:0.0000%, count:0) | 363 (score:0.0000%, count:0) | 364 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 308 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 328 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 338 (score:0.0000%, count:0)</t>
+    <t>368 (score:3.889721%, count:1) | 412 (score:3.889721%, count:1) | 312 (score:3.819860%, count:0) | 318 (score:3.819860%, count:0) | 362 (score:3.819860%, count:0) | 418 (score:3.819860%, count:0) | 462 (score:3.819860%, count:0) | 468 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-29</t>
   </si>
   <si>
-    <t>721 (score:50.0000%, count:1) | 998 (score:50.0000%, count:1) | 728 (score:12.5000%, count:0) | 791 (score:12.5000%, count:0) | 798 (score:12.5000%, count:0) | 921 (score:12.5000%, count:0) | 928 (score:12.5000%, count:0) | 991 (score:12.5000%, count:0) | 720 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 790 (score:0.0000%, count:0) | 792 (score:0.0000%, count:0) | 793 (score:0.0000%, count:0) | 794 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 708 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 718 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 738 (score:0.0000%, count:0)</t>
+    <t>721 (score:3.889721%, count:1) | 998 (score:3.889721%, count:1) | 728 (score:3.819860%, count:0) | 791 (score:3.819860%, count:0) | 798 (score:3.819860%, count:0) | 921 (score:3.819860%, count:0) | 928 (score:3.819860%, count:0) | 991 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-30</t>
   </si>
   <si>
-    <t>376 (score:50.0000%, count:1) | 478 (score:50.0000%, count:1) | 378 (score:25.0000%, count:0) | 476 (score:25.0000%, count:0) | 370 (score:0.0000%, count:0) | 371 (score:0.0000%, count:0) | 372 (score:0.0000%, count:0) | 373 (score:0.0000%, count:0) | 306 (score:0.0000%, count:0) | 308 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 316 (score:0.0000%, count:0) | 318 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 326 (score:0.0000%, count:0) | 328 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 336 (score:0.0000%, count:0) | 338 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0)</t>
+    <t>376 (score:7.639721%, count:1) | 478 (score:7.639721%, count:1) | 378 (score:7.569860%, count:0) | 476 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-07-31</t>
   </si>
   <si>
-    <t>524 (score:50.0000%, count:1) | 597 (score:50.0000%, count:1) | 527 (score:25.0000%, count:0) | 594 (score:25.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 590 (score:0.0000%, count:0) | 591 (score:0.0000%, count:0) | 592 (score:0.0000%, count:0) | 593 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 507 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 517 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 537 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0)</t>
+    <t>524 (score:7.639721%, count:1) | 597 (score:7.639721%, count:1) | 527 (score:7.569860%, count:0) | 594 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-01</t>
   </si>
   <si>
-    <t>212 (score:50.0000%, count:1) | 226 (score:50.0000%, count:1) | 216 (score:25.0000%, count:0) | 222 (score:25.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 206 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 246 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0)</t>
+    <t>212 (score:7.639721%, count:1) | 226 (score:7.639721%, count:1) | 216 (score:7.569860%, count:0) | 222 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-02</t>
   </si>
   <si>
-    <t>253 (score:50.0000%, count:1) | 014 (score:50.0000%, count:1) | 013 (score:12.5000%, count:0) | 053 (score:12.5000%, count:0) | 054 (score:12.5000%, count:0) | 213 (score:12.5000%, count:0) | 214 (score:12.5000%, count:0) | 254 (score:12.5000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 050 (score:0.0000%, count:0) | 051 (score:0.0000%, count:0) | 052 (score:0.0000%, count:0) | 055 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>253 (score:3.889721%, count:1) | 014 (score:3.889721%, count:1) | 213 (score:3.819860%, count:0) | 214 (score:3.819860%, count:0) | 254 (score:3.819860%, count:0) | 013 (score:3.819860%, count:0) | 053 (score:3.819860%, count:0) | 054 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-03</t>
   </si>
   <si>
-    <t>528 (score:50.0000%, count:1) | 584 (score:50.0000%, count:1) | 524 (score:25.0000%, count:0) | 588 (score:25.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 580 (score:0.0000%, count:0) | 581 (score:0.0000%, count:0) | 582 (score:0.0000%, count:0) | 583 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 508 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 518 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 538 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0)</t>
+    <t>528 (score:7.639721%, count:1) | 584 (score:7.639721%, count:1) | 524 (score:7.569860%, count:0) | 588 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-04</t>
   </si>
   <si>
-    <t>177 (score:50.0000%, count:1) | 939 (score:50.0000%, count:1) | 137 (score:12.5000%, count:0) | 139 (score:12.5000%, count:0) | 179 (score:12.5000%, count:0) | 937 (score:12.5000%, count:0) | 977 (score:12.5000%, count:0) | 979 (score:12.5000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 170 (score:0.0000%, count:0) | 171 (score:0.0000%, count:0) | 172 (score:0.0000%, count:0) | 173 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 109 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 119 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0) | 129 (score:0.0000%, count:0)</t>
+    <t>177 (score:3.889721%, count:1) | 939 (score:3.889721%, count:1) | 137 (score:3.819860%, count:0) | 139 (score:3.819860%, count:0) | 179 (score:3.819860%, count:0) | 937 (score:3.819860%, count:0) | 977 (score:3.819860%, count:0) | 979 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-05</t>
   </si>
   <si>
-    <t>506 (score:50.0000%, count:1) | 702 (score:50.0000%, count:1) | 502 (score:25.0000%, count:0) | 706 (score:25.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 516 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 526 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 536 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 546 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0)</t>
+    <t>506 (score:7.639721%, count:1) | 702 (score:7.639721%, count:1) | 502 (score:7.569860%, count:0) | 706 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-06</t>
   </si>
   <si>
-    <t>735 (score:50.0000%, count:1) | 993 (score:50.0000%, count:1) | 733 (score:12.5000%, count:0) | 793 (score:12.5000%, count:0) | 795 (score:12.5000%, count:0) | 933 (score:12.5000%, count:0) | 935 (score:12.5000%, count:0) | 995 (score:12.5000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 790 (score:0.0000%, count:0) | 791 (score:0.0000%, count:0) | 792 (score:0.0000%, count:0) | 794 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0)</t>
+    <t>735 (score:3.889721%, count:1) | 993 (score:3.889721%, count:1) | 733 (score:3.819860%, count:0) | 793 (score:3.819860%, count:0) | 795 (score:3.819860%, count:0) | 933 (score:3.819860%, count:0) | 935 (score:3.819860%, count:0) | 995 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-07</t>
   </si>
   <si>
-    <t>922 (score:50.0000%, count:1) | 038 (score:50.0000%, count:1) | 022 (score:12.5000%, count:0) | 028 (score:12.5000%, count:0) | 032 (score:12.5000%, count:0) | 928 (score:12.5000%, count:0) | 932 (score:12.5000%, count:0) | 938 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 008 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 048 (score:0.0000%, count:0)</t>
+    <t>922 (score:3.889721%, count:1) | 038 (score:3.889721%, count:1) | 928 (score:3.819860%, count:0) | 932 (score:3.819860%, count:0) | 938 (score:3.819860%, count:0) | 022 (score:3.819860%, count:0) | 028 (score:3.819860%, count:0) | 032 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-08</t>
   </si>
   <si>
-    <t>405 (score:50.0000%, count:1) | 751 (score:50.0000%, count:1) | 401 (score:12.5000%, count:0) | 451 (score:12.5000%, count:0) | 455 (score:12.5000%, count:0) | 701 (score:12.5000%, count:0) | 705 (score:12.5000%, count:0) | 755 (score:12.5000%, count:0) | 400 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 450 (score:0.0000%, count:0) | 452 (score:0.0000%, count:0) | 453 (score:0.0000%, count:0) | 454 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0)</t>
+    <t>405 (score:3.889721%, count:1) | 751 (score:3.889721%, count:1) | 401 (score:3.819860%, count:0) | 451 (score:3.819860%, count:0) | 455 (score:3.819860%, count:0) | 701 (score:3.819860%, count:0) | 705 (score:3.819860%, count:0) | 755 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-09</t>
   </si>
   <si>
-    <t>294 (score:50.0000%, count:1) | 654 (score:50.0000%, count:1) | 254 (score:25.0000%, count:0) | 694 (score:25.0000%, count:0) | 250 (score:0.0000%, count:0) | 251 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 255 (score:0.0000%, count:0) | 290 (score:0.0000%, count:0) | 291 (score:0.0000%, count:0) | 292 (score:0.0000%, count:0) | 293 (score:0.0000%, count:0) | 295 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0)</t>
+    <t>294 (score:7.639721%, count:1) | 654 (score:7.639721%, count:1) | 254 (score:7.569860%, count:0) | 694 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-10</t>
   </si>
   <si>
-    <t>876 (score:50.0000%, count:1) | 995 (score:50.0000%, count:1) | 875 (score:12.5000%, count:0) | 895 (score:12.5000%, count:0) | 896 (score:12.5000%, count:0) | 975 (score:12.5000%, count:0) | 976 (score:12.5000%, count:0) | 996 (score:12.5000%, count:0) | 870 (score:0.0000%, count:0) | 871 (score:0.0000%, count:0) | 872 (score:0.0000%, count:0) | 873 (score:0.0000%, count:0) | 890 (score:0.0000%, count:0) | 891 (score:0.0000%, count:0) | 892 (score:0.0000%, count:0) | 893 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 806 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 816 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 826 (score:0.0000%, count:0)</t>
+    <t>876 (score:3.889721%, count:1) | 995 (score:3.889721%, count:1) | 875 (score:3.819860%, count:0) | 895 (score:3.819860%, count:0) | 896 (score:3.819860%, count:0) | 975 (score:3.819860%, count:0) | 976 (score:3.819860%, count:0) | 996 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-11</t>
   </si>
   <si>
-    <t>451 (score:50.0000%, count:1) | 988 (score:50.0000%, count:1) | 458 (score:12.5000%, count:0) | 481 (score:12.5000%, count:0) | 488 (score:12.5000%, count:0) | 951 (score:12.5000%, count:0) | 958 (score:12.5000%, count:0) | 981 (score:12.5000%, count:0) | 450 (score:0.0000%, count:0) | 452 (score:0.0000%, count:0) | 453 (score:0.0000%, count:0) | 454 (score:0.0000%, count:0) | 480 (score:0.0000%, count:0) | 482 (score:0.0000%, count:0) | 483 (score:0.0000%, count:0) | 484 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 408 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 418 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 428 (score:0.0000%, count:0)</t>
+    <t>451 (score:3.889721%, count:1) | 988 (score:3.889721%, count:1) | 458 (score:3.819860%, count:0) | 481 (score:3.819860%, count:0) | 488 (score:3.819860%, count:0) | 951 (score:3.819860%, count:0) | 958 (score:3.819860%, count:0) | 981 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-12</t>
   </si>
   <si>
-    <t>367 (score:50.0000%, count:1) | 773 (score:50.0000%, count:1) | 363 (score:12.5000%, count:0) | 373 (score:12.5000%, count:0) | 377 (score:12.5000%, count:0) | 763 (score:12.5000%, count:0) | 767 (score:12.5000%, count:0) | 777 (score:12.5000%, count:0) | 360 (score:0.0000%, count:0) | 361 (score:0.0000%, count:0) | 362 (score:0.0000%, count:0) | 364 (score:0.0000%, count:0) | 370 (score:0.0000%, count:0) | 371 (score:0.0000%, count:0) | 372 (score:0.0000%, count:0) | 374 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 307 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 317 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 327 (score:0.0000%, count:0)</t>
+    <t>367 (score:3.889721%, count:1) | 773 (score:3.889721%, count:1) | 363 (score:3.819860%, count:0) | 373 (score:3.819860%, count:0) | 377 (score:3.819860%, count:0) | 763 (score:3.819860%, count:0) | 767 (score:3.819860%, count:0) | 777 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-13</t>
   </si>
   <si>
-    <t>246 (score:50.0000%, count:1) | 900 (score:50.0000%, count:1) | 200 (score:12.5000%, count:0) | 206 (score:12.5000%, count:0) | 240 (score:12.5000%, count:0) | 906 (score:12.5000%, count:0) | 940 (score:12.5000%, count:0) | 946 (score:12.5000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 216 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 226 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 236 (score:0.0000%, count:0)</t>
+    <t>246 (score:3.889721%, count:1) | 900 (score:3.889721%, count:1) | 200 (score:3.819860%, count:0) | 206 (score:3.819860%, count:0) | 240 (score:3.819860%, count:0) | 906 (score:3.819860%, count:0) | 940 (score:3.819860%, count:0) | 946 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-14</t>
   </si>
   <si>
-    <t>769 (score:50.0000%, count:1) | 002 (score:50.0000%, count:1) | 009 (score:12.5000%, count:0) | 062 (score:12.5000%, count:0) | 069 (score:12.5000%, count:0) | 702 (score:12.5000%, count:0) | 709 (score:12.5000%, count:0) | 762 (score:12.5000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 060 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 063 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 039 (score:0.0000%, count:0)</t>
+    <t>769 (score:3.889721%, count:1) | 002 (score:3.889721%, count:1) | 702 (score:3.819860%, count:0) | 709 (score:3.819860%, count:0) | 762 (score:3.819860%, count:0) | 009 (score:3.819860%, count:0) | 062 (score:3.819860%, count:0) | 069 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-15</t>
   </si>
   <si>
-    <t>939 (score:3.3333%, count:2) | 148 (score:1.6667%, count:1) | 177 (score:1.6667%, count:1) | 184 (score:1.6667%, count:1) | 210 (score:1.6667%, count:1) | 212 (score:1.6667%, count:1) | 226 (score:1.6667%, count:1) | 229 (score:1.6667%, count:1) | 246 (score:1.6667%, count:1) | 249 (score:1.6667%, count:1) | 253 (score:1.6667%, count:1) | 257 (score:1.6667%, count:1) | 294 (score:1.6667%, count:1) | 367 (score:1.6667%, count:1) | 404 (score:1.6667%, count:1) | 405 (score:1.6667%, count:1) | 415 (score:1.6667%, count:1) | 432 (score:1.6667%, count:1) | 451 (score:1.6667%, count:1) | 462 (score:1.6667%, count:1) | 476 (score:1.6667%, count:1) | 506 (score:1.6667%, count:1) | 528 (score:1.6667%, count:1) | 542 (score:1.6667%, count:1) | 584 (score:1.6667%, count:1) | 595 (score:1.6667%, count:1) | 643 (score:1.6667%, count:1) | 652 (score:1.6667%, count:1) | 654 (score:1.6667%, count:1) | 702 (score:1.6667%, count:1)</t>
+    <t>922 (score:0.281798%, count:1) | 952 (score:0.279927%, count:0) | 939 (score:0.268113%, count:2) | 982 (score:0.260409%, count:1) | 957 (score:0.229298%, count:1) | 002 (score:0.228325%, count:1) | 974 (score:0.225409%, count:1) | 954 (score:0.221593%, count:0) | 902 (score:0.215760%, count:0) | 032 (score:0.214575%, count:1) | 976 (score:0.213742%, count:1) | 059 (score:0.207075%, count:1) | 702 (score:0.206937%, count:1) | 252 (score:0.203538%, count:0) | 052 (score:0.203538%, count:0) | 956 (score:0.202149%, count:0) | 212 (score:0.200825%, count:1) | 900 (score:0.200131%, count:1) | 923 (score:0.200131%, count:1) | 432 (score:0.196242%, count:1) | 782 (score:0.196242%, count:1) | 253 (score:0.194575%, count:1) | 257 (score:0.194575%, count:1) | 057 (score:0.194575%, count:1) | 932 (score:0.194371%, count:0) | 972 (score:0.194371%, count:0) | 226 (score:0.193325%, count:1) | 026 (score:0.193325%, count:1) | 084 (score:0.192075%, count:1) | 915 (score:0.190409%, count:1) | 404 (score:0.186520%, count:1) | 229 (score:0.184575%, count:1) | 955 (score:0.182704%, count:0) | 959 (score:0.182704%, count:0) | 014 (score:0.182075%, count:1) | 988 (score:0.178742%, count:1) | 995 (score:0.178742%, count:1) | 652 (score:0.177909%, count:1) | 246 (score:0.175825%, count:1) | 000 (score:0.175825%, count:1) | 904 (score:0.174927%, count:0) | 924 (score:0.174927%, count:0) | 462 (score:0.174853%, count:1) | 452 (score:0.172982%, count:0) | 752 (score:0.172982%, count:0) | 912 (score:0.172982%, count:0) | 942 (score:0.172982%, count:0) | 405 (score:0.172909%, count:1) | 476 (score:0.172909%, count:1) | 294 (score:0.172075%, count:1)</t>
   </si>
   <si>
     <t>2026-08-16</t>
   </si>
   <si>
-    <t>643 (score:50.0000%, count:1) | 974 (score:50.0000%, count:1) | 644 (score:12.5000%, count:0) | 673 (score:12.5000%, count:0) | 674 (score:12.5000%, count:0) | 943 (score:12.5000%, count:0) | 944 (score:12.5000%, count:0) | 973 (score:12.5000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0) | 670 (score:0.0000%, count:0) | 671 (score:0.0000%, count:0) | 672 (score:0.0000%, count:0) | 675 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0)</t>
+    <t>643 (score:3.889721%, count:1) | 974 (score:3.889721%, count:1) | 644 (score:3.819860%, count:0) | 673 (score:3.819860%, count:0) | 674 (score:3.819860%, count:0) | 943 (score:3.819860%, count:0) | 944 (score:3.819860%, count:0) | 973 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-17</t>
   </si>
   <si>
-    <t>720 (score:50.0000%, count:1) | 960 (score:50.0000%, count:1) | 760 (score:25.0000%, count:0) | 920 (score:25.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 761 (score:0.0000%, count:0) | 762 (score:0.0000%, count:0) | 763 (score:0.0000%, count:0) | 764 (score:0.0000%, count:0) | 765 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0)</t>
+    <t>720 (score:7.639721%, count:1) | 960 (score:7.639721%, count:1) | 760 (score:7.569860%, count:0) | 920 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>782 (score:50.0000%, count:1) | 851 (score:50.0000%, count:1) | 751 (score:12.5000%, count:0) | 752 (score:12.5000%, count:0) | 781 (score:12.5000%, count:0) | 852 (score:12.5000%, count:0) | 881 (score:12.5000%, count:0) | 882 (score:12.5000%, count:0) | 750 (score:0.0000%, count:0) | 753 (score:0.0000%, count:0) | 754 (score:0.0000%, count:0) | 755 (score:0.0000%, count:0) | 780 (score:0.0000%, count:0) | 783 (score:0.0000%, count:0) | 784 (score:0.0000%, count:0) | 785 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0)</t>
+    <t>782 (score:3.889721%, count:1) | 851 (score:3.889721%, count:1) | 751 (score:3.819860%, count:0) | 752 (score:3.819860%, count:0) | 781 (score:3.819860%, count:0) | 852 (score:3.819860%, count:0) | 881 (score:3.819860%, count:0) | 882 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-19</t>
   </si>
   <si>
-    <t>148 (score:50.0000%, count:1) | 000 (score:50.0000%, count:1) | 008 (score:12.5000%, count:0) | 040 (score:12.5000%, count:0) | 048 (score:12.5000%, count:0) | 100 (score:12.5000%, count:0) | 108 (score:12.5000%, count:0) | 140 (score:12.5000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 042 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 028 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 038 (score:0.0000%, count:0)</t>
+    <t>148 (score:3.889721%, count:1) | 000 (score:3.889721%, count:1) | 100 (score:3.819860%, count:0) | 108 (score:3.819860%, count:0) | 140 (score:3.819860%, count:0) | 008 (score:3.819860%, count:0) | 040 (score:3.819860%, count:0) | 048 (score:3.819860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-20</t>
   </si>
   <si>
-    <t>404 (score:50.0000%, count:1) | 976 (score:50.0000%, count:1) | 406 (score:12.5000%, count:0) | 474 (score:12.5000%, count:0) | 476 (score:12.5000%, count:0) | 904 (score:12.5000%, count:0) | 906 (score:12.5000%, count:0) | 974 (score:12.5000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 470 (score:0.0000%, count:0) | 471 (score:0.0000%, count:0) | 472 (score:0.0000%, count:0) | 473 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 416 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 426 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 436 (score:0.0000%, count:0)</t>
+    <t>404 (score:3.889721%, count:1) | 976 (score:3.889721%, count:1) | 406 (score:3.819860%, count:0) | 474 (score:3.819860%, count:0) | 476 (score:3.819860%, count:0) | 904 (score:3.819860%, count:0) | 906 (score:3.819860%, count:0) | 974 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-21</t>
   </si>
   <si>
-    <t>542 (score:50.0000%, count:1) | 057 (score:50.0000%, count:1) | 042 (score:12.5000%, count:0) | 047 (score:12.5000%, count:0) | 052 (score:12.5000%, count:0) | 547 (score:12.5000%, count:0) | 552 (score:12.5000%, count:0) | 557 (score:12.5000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 043 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 050 (score:0.0000%, count:0) | 051 (score:0.0000%, count:0) | 053 (score:0.0000%, count:0) | 054 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 007 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 027 (score:0.0000%, count:0)</t>
+    <t>542 (score:3.889721%, count:1) | 057 (score:3.889721%, count:1) | 547 (score:3.819860%, count:0) | 552 (score:3.819860%, count:0) | 557 (score:3.819860%, count:0) | 042 (score:3.819860%, count:0) | 047 (score:3.819860%, count:0) | 052 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-22</t>
   </si>
   <si>
-    <t>957 (score:50.0000%, count:1) | 026 (score:50.0000%, count:1) | 027 (score:12.5000%, count:0) | 056 (score:12.5000%, count:0) | 057 (score:12.5000%, count:0) | 926 (score:12.5000%, count:0) | 927 (score:12.5000%, count:0) | 956 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 050 (score:0.0000%, count:0) | 051 (score:0.0000%, count:0) | 052 (score:0.0000%, count:0) | 053 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 007 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0) | 037 (score:0.0000%, count:0)</t>
+    <t>957 (score:3.889721%, count:1) | 026 (score:3.889721%, count:1) | 926 (score:3.819860%, count:0) | 927 (score:3.819860%, count:0) | 956 (score:3.819860%, count:0) | 027 (score:3.819860%, count:0) | 056 (score:3.819860%, count:0) | 057 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-23</t>
   </si>
   <si>
-    <t>432 (score:50.0000%, count:1) | 915 (score:50.0000%, count:1) | 412 (score:12.5000%, count:0) | 415 (score:12.5000%, count:0) | 435 (score:12.5000%, count:0) | 912 (score:12.5000%, count:0) | 932 (score:12.5000%, count:0) | 935 (score:12.5000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0)</t>
+    <t>432 (score:3.889721%, count:1) | 915 (score:3.889721%, count:1) | 412 (score:3.819860%, count:0) | 415 (score:3.819860%, count:0) | 435 (score:3.819860%, count:0) | 912 (score:3.819860%, count:0) | 932 (score:3.819860%, count:0) | 935 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-24</t>
   </si>
   <si>
-    <t>652 (score:50.0000%, count:1) | 923 (score:50.0000%, count:1) | 622 (score:12.5000%, count:0) | 623 (score:12.5000%, count:0) | 653 (score:12.5000%, count:0) | 922 (score:12.5000%, count:0) | 952 (score:12.5000%, count:0) | 953 (score:12.5000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 655 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0)</t>
+    <t>652 (score:3.889721%, count:1) | 923 (score:3.889721%, count:1) | 622 (score:3.819860%, count:0) | 623 (score:3.819860%, count:0) | 653 (score:3.819860%, count:0) | 922 (score:3.819860%, count:0) | 952 (score:3.819860%, count:0) | 953 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-25</t>
   </si>
   <si>
-    <t>210 (score:50.0000%, count:1) | 084 (score:50.0000%, count:1) | 010 (score:12.5000%, count:0) | 014 (score:12.5000%, count:0) | 080 (score:12.5000%, count:0) | 214 (score:12.5000%, count:0) | 280 (score:12.5000%, count:0) | 284 (score:12.5000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 081 (score:0.0000%, count:0) | 082 (score:0.0000%, count:0) | 083 (score:0.0000%, count:0) | 085 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>210 (score:3.889721%, count:1) | 084 (score:3.889721%, count:1) | 214 (score:3.819860%, count:0) | 280 (score:3.819860%, count:0) | 284 (score:3.819860%, count:0) | 010 (score:3.819860%, count:0) | 014 (score:3.819860%, count:0) | 080 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-26</t>
   </si>
   <si>
-    <t>249 (score:50.0000%, count:1) | 939 (score:50.0000%, count:1) | 239 (score:25.0000%, count:0) | 949 (score:25.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 229 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0)</t>
+    <t>249 (score:7.639721%, count:1) | 939 (score:7.639721%, count:1) | 239 (score:7.569860%, count:0) | 949 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-27</t>
   </si>
   <si>
-    <t>184 (score:50.0000%, count:1) | 415 (score:50.0000%, count:1) | 114 (score:12.5000%, count:0) | 115 (score:12.5000%, count:0) | 185 (score:12.5000%, count:0) | 414 (score:12.5000%, count:0) | 484 (score:12.5000%, count:0) | 485 (score:12.5000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 180 (score:0.0000%, count:0) | 181 (score:0.0000%, count:0) | 182 (score:0.0000%, count:0) | 183 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0)</t>
+    <t>184 (score:3.889721%, count:1) | 415 (score:3.889721%, count:1) | 114 (score:3.819860%, count:0) | 115 (score:3.819860%, count:0) | 185 (score:3.819860%, count:0) | 414 (score:3.819860%, count:0) | 484 (score:3.819860%, count:0) | 485 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-28</t>
   </si>
   <si>
-    <t>982 (score:50.0000%, count:1) | 059 (score:50.0000%, count:1) | 052 (score:12.5000%, count:0) | 082 (score:12.5000%, count:0) | 089 (score:12.5000%, count:0) | 952 (score:12.5000%, count:0) | 959 (score:12.5000%, count:0) | 989 (score:12.5000%, count:0) | 050 (score:0.0000%, count:0) | 051 (score:0.0000%, count:0) | 053 (score:0.0000%, count:0) | 054 (score:0.0000%, count:0) | 080 (score:0.0000%, count:0) | 081 (score:0.0000%, count:0) | 083 (score:0.0000%, count:0) | 084 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0)</t>
+    <t>982 (score:3.889721%, count:1) | 059 (score:3.889721%, count:1) | 952 (score:3.819860%, count:0) | 959 (score:3.819860%, count:0) | 989 (score:3.819860%, count:0) | 052 (score:3.819860%, count:0) | 082 (score:3.819860%, count:0) | 089 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-29</t>
   </si>
   <si>
-    <t>476 (score:50.0000%, count:1) | 032 (score:50.0000%, count:1) | 036 (score:12.5000%, count:0) | 072 (score:12.5000%, count:0) | 076 (score:12.5000%, count:0) | 432 (score:12.5000%, count:0) | 436 (score:12.5000%, count:0) | 472 (score:12.5000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 070 (score:0.0000%, count:0) | 071 (score:0.0000%, count:0) | 073 (score:0.0000%, count:0) | 074 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 006 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0)</t>
+    <t>476 (score:3.889721%, count:1) | 032 (score:3.889721%, count:1) | 432 (score:3.819860%, count:0) | 436 (score:3.819860%, count:0) | 472 (score:3.819860%, count:0) | 036 (score:3.819860%, count:0) | 072 (score:3.819860%, count:0) | 076 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-30</t>
   </si>
   <si>
-    <t>229 (score:50.0000%, count:1) | 257 (score:50.0000%, count:1) | 227 (score:25.0000%, count:0) | 259 (score:25.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 250 (score:0.0000%, count:0) | 251 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 253 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0) | 239 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0)</t>
+    <t>229 (score:7.639721%, count:1) | 257 (score:7.639721%, count:1) | 227 (score:7.569860%, count:0) | 259 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-08-31</t>
   </si>
   <si>
-    <t>462 (score:50.0000%, count:1) | 595 (score:50.0000%, count:1) | 465 (score:12.5000%, count:0) | 492 (score:12.5000%, count:0) | 495 (score:12.5000%, count:0) | 562 (score:12.5000%, count:0) | 565 (score:12.5000%, count:0) | 592 (score:12.5000%, count:0) | 460 (score:0.0000%, count:0) | 461 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 464 (score:0.0000%, count:0) | 490 (score:0.0000%, count:0) | 491 (score:0.0000%, count:0) | 493 (score:0.0000%, count:0) | 494 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0)</t>
+    <t>462 (score:3.889721%, count:1) | 595 (score:3.889721%, count:1) | 465 (score:3.819860%, count:0) | 492 (score:3.819860%, count:0) | 495 (score:3.819860%, count:0) | 562 (score:3.819860%, count:0) | 565 (score:3.819860%, count:0) | 592 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-01</t>
   </si>
   <si>
-    <t>510 (score:50.0000%, count:1) | 803 (score:50.0000%, count:1) | 500 (score:12.5000%, count:0) | 503 (score:12.5000%, count:0) | 513 (score:12.5000%, count:0) | 800 (score:12.5000%, count:0) | 810 (score:12.5000%, count:0) | 813 (score:12.5000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0)</t>
+    <t>510 (score:3.889721%, count:1) | 803 (score:3.889721%, count:1) | 500 (score:3.819860%, count:0) | 503 (score:3.819860%, count:0) | 513 (score:3.819860%, count:0) | 800 (score:3.819860%, count:0) | 810 (score:3.819860%, count:0) | 813 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-02</t>
   </si>
   <si>
-    <t>763 (score:50.0000%, count:1) | 068 (score:50.0000%, count:1) | 063 (score:25.0000%, count:0) | 768 (score:25.0000%, count:0) | 060 (score:0.0000%, count:0) | 061 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 008 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 028 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 038 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0)</t>
+    <t>763 (score:7.639721%, count:1) | 068 (score:7.639721%, count:1) | 768 (score:7.569860%, count:0) | 063 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-03</t>
   </si>
   <si>
-    <t>551 (score:50.0000%, count:1) | 007 (score:50.0000%, count:1) | 001 (score:12.5000%, count:0) | 051 (score:12.5000%, count:0) | 057 (score:12.5000%, count:0) | 501 (score:12.5000%, count:0) | 507 (score:12.5000%, count:0) | 557 (score:12.5000%, count:0) | 000 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 050 (score:0.0000%, count:0) | 052 (score:0.0000%, count:0) | 053 (score:0.0000%, count:0) | 054 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 017 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 027 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 037 (score:0.0000%, count:0)</t>
+    <t>551 (score:3.889721%, count:1) | 007 (score:3.889721%, count:1) | 501 (score:3.819860%, count:0) | 507 (score:3.819860%, count:0) | 557 (score:3.819860%, count:0) | 001 (score:3.819860%, count:0) | 051 (score:3.819860%, count:0) | 057 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-04</t>
   </si>
   <si>
-    <t>829 (score:50.0000%, count:1) | 935 (score:50.0000%, count:1) | 825 (score:12.5000%, count:0) | 835 (score:12.5000%, count:0) | 839 (score:12.5000%, count:0) | 925 (score:12.5000%, count:0) | 929 (score:12.5000%, count:0) | 939 (score:12.5000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 809 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 819 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 845 (score:0.0000%, count:0) | 849 (score:0.0000%, count:0)</t>
+    <t>829 (score:3.889721%, count:1) | 935 (score:3.889721%, count:1) | 825 (score:3.819860%, count:0) | 835 (score:3.819860%, count:0) | 839 (score:3.819860%, count:0) | 925 (score:3.819860%, count:0) | 929 (score:3.819860%, count:0) | 939 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-05</t>
   </si>
   <si>
-    <t>722 (score:100.0000%, count:1) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0) | 742 (score:0.0000%, count:0) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0) | 745 (score:0.0000%, count:0)</t>
+    <t>722 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-09-06</t>
   </si>
   <si>
-    <t>265 (score:50.0000%, count:1) | 295 (score:50.0000%, count:1) | 260 (score:0.0000%, count:0) | 261 (score:0.0000%, count:0) | 262 (score:0.0000%, count:0) | 263 (score:0.0000%, count:0) | 264 (score:0.0000%, count:0) | 290 (score:0.0000%, count:0) | 291 (score:0.0000%, count:0) | 292 (score:0.0000%, count:0) | 293 (score:0.0000%, count:0) | 294 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0)</t>
+    <t>265 (score:15.139721%, count:1) | 295 (score:15.139721%, count:1) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0) | 147 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-07</t>
   </si>
   <si>
-    <t>385 (score:50.0000%, count:1) | 851 (score:50.0000%, count:1) | 351 (score:12.5000%, count:0) | 355 (score:12.5000%, count:0) | 381 (score:12.5000%, count:0) | 855 (score:12.5000%, count:0) | 881 (score:12.5000%, count:0) | 885 (score:12.5000%, count:0) | 350 (score:0.0000%, count:0) | 352 (score:0.0000%, count:0) | 353 (score:0.0000%, count:0) | 354 (score:0.0000%, count:0) | 380 (score:0.0000%, count:0) | 382 (score:0.0000%, count:0) | 383 (score:0.0000%, count:0) | 384 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0)</t>
+    <t>385 (score:3.889721%, count:1) | 851 (score:3.889721%, count:1) | 351 (score:3.819860%, count:0) | 355 (score:3.819860%, count:0) | 381 (score:3.819860%, count:0) | 855 (score:3.819860%, count:0) | 881 (score:3.819860%, count:0) | 885 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-08</t>
   </si>
   <si>
-    <t>272 (score:50.0000%, count:1) | 975 (score:50.0000%, count:1) | 275 (score:25.0000%, count:0) | 972 (score:25.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0)</t>
+    <t>272 (score:7.639721%, count:1) | 975 (score:7.639721%, count:1) | 275 (score:7.569860%, count:0) | 972 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-09</t>
   </si>
   <si>
-    <t>272 (score:50.0000%, count:1) | 745 (score:50.0000%, count:1) | 242 (score:12.5000%, count:0) | 245 (score:12.5000%, count:0) | 275 (score:12.5000%, count:0) | 742 (score:12.5000%, count:0) | 772 (score:12.5000%, count:0) | 775 (score:12.5000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0)</t>
+    <t>272 (score:3.889721%, count:1) | 745 (score:3.889721%, count:1) | 242 (score:3.819860%, count:0) | 245 (score:3.819860%, count:0) | 275 (score:3.819860%, count:0) | 742 (score:3.819860%, count:0) | 772 (score:3.819860%, count:0) | 775 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-10</t>
   </si>
   <si>
-    <t>465 (score:50.0000%, count:1) | 756 (score:50.0000%, count:1) | 455 (score:12.5000%, count:0) | 456 (score:12.5000%, count:0) | 466 (score:12.5000%, count:0) | 755 (score:12.5000%, count:0) | 765 (score:12.5000%, count:0) | 766 (score:12.5000%, count:0) | 450 (score:0.0000%, count:0) | 451 (score:0.0000%, count:0) | 452 (score:0.0000%, count:0) | 453 (score:0.0000%, count:0) | 460 (score:0.0000%, count:0) | 461 (score:0.0000%, count:0) | 462 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 406 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 416 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 425 (score:0.0000%, count:0) | 426 (score:0.0000%, count:0)</t>
+    <t>465 (score:3.889721%, count:1) | 756 (score:3.889721%, count:1) | 455 (score:3.819860%, count:0) | 456 (score:3.819860%, count:0) | 466 (score:3.819860%, count:0) | 755 (score:3.819860%, count:0) | 765 (score:3.819860%, count:0) | 766 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-11</t>
   </si>
   <si>
-    <t>650 (score:50.0000%, count:1) | 978 (score:50.0000%, count:1) | 658 (score:12.5000%, count:0) | 670 (score:12.5000%, count:0) | 678 (score:12.5000%, count:0) | 950 (score:12.5000%, count:0) | 958 (score:12.5000%, count:0) | 970 (score:12.5000%, count:0) | 651 (score:0.0000%, count:0) | 652 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 671 (score:0.0000%, count:0) | 672 (score:0.0000%, count:0) | 673 (score:0.0000%, count:0) | 674 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 608 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 618 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 628 (score:0.0000%, count:0)</t>
+    <t>650 (score:3.889721%, count:1) | 978 (score:3.889721%, count:1) | 658 (score:3.819860%, count:0) | 670 (score:3.819860%, count:0) | 678 (score:3.819860%, count:0) | 950 (score:3.819860%, count:0) | 958 (score:3.819860%, count:0) | 970 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-12</t>
   </si>
   <si>
-    <t>312 (score:50.0000%, count:1) | 773 (score:50.0000%, count:1) | 313 (score:12.5000%, count:0) | 372 (score:12.5000%, count:0) | 373 (score:12.5000%, count:0) | 712 (score:12.5000%, count:0) | 713 (score:12.5000%, count:0) | 772 (score:12.5000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 370 (score:0.0000%, count:0) | 371 (score:0.0000%, count:0) | 374 (score:0.0000%, count:0) | 375 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0)</t>
+    <t>312 (score:3.889721%, count:1) | 773 (score:3.889721%, count:1) | 313 (score:3.819860%, count:0) | 372 (score:3.819860%, count:0) | 373 (score:3.819860%, count:0) | 712 (score:3.819860%, count:0) | 713 (score:3.819860%, count:0) | 772 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-13</t>
   </si>
   <si>
-    <t>961 (score:50.0000%, count:1) | 020 (score:50.0000%, count:1) | 021 (score:12.5000%, count:0) | 060 (score:12.5000%, count:0) | 061 (score:12.5000%, count:0) | 920 (score:12.5000%, count:0) | 921 (score:12.5000%, count:0) | 960 (score:12.5000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 062 (score:0.0000%, count:0) | 063 (score:0.0000%, count:0) | 064 (score:0.0000%, count:0) | 065 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0)</t>
+    <t>961 (score:3.889721%, count:1) | 020 (score:3.889721%, count:1) | 920 (score:3.819860%, count:0) | 921 (score:3.819860%, count:0) | 960 (score:3.819860%, count:0) | 021 (score:3.819860%, count:0) | 060 (score:3.819860%, count:0) | 061 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-14</t>
   </si>
   <si>
-    <t>528 (score:50.0000%, count:1) | 709 (score:50.0000%, count:1) | 508 (score:12.5000%, count:0) | 509 (score:12.5000%, count:0) | 529 (score:12.5000%, count:0) | 708 (score:12.5000%, count:0) | 728 (score:12.5000%, count:0) | 729 (score:12.5000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 518 (score:0.0000%, count:0) | 519 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 538 (score:0.0000%, count:0) | 539 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 548 (score:0.0000%, count:0) | 549 (score:0.0000%, count:0)</t>
+    <t>528 (score:3.889721%, count:1) | 709 (score:3.889721%, count:1) | 508 (score:3.819860%, count:0) | 509 (score:3.819860%, count:0) | 529 (score:3.819860%, count:0) | 708 (score:3.819860%, count:0) | 728 (score:3.819860%, count:0) | 729 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-15</t>
   </si>
   <si>
-    <t>688 (score:100.0000%, count:1) | 680 (score:0.0000%, count:0) | 681 (score:0.0000%, count:0) | 682 (score:0.0000%, count:0) | 683 (score:0.0000%, count:0) | 684 (score:0.0000%, count:0) | 608 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 618 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 628 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 638 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0)</t>
+    <t>688 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-09-16</t>
   </si>
   <si>
-    <t>244 (score:50.0000%, count:1) | 727 (score:50.0000%, count:1) | 224 (score:12.5000%, count:0) | 227 (score:12.5000%, count:0) | 247 (score:12.5000%, count:0) | 724 (score:12.5000%, count:0) | 744 (score:12.5000%, count:0) | 747 (score:12.5000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0)</t>
+    <t>244 (score:3.889721%, count:1) | 727 (score:3.889721%, count:1) | 224 (score:3.819860%, count:0) | 227 (score:3.819860%, count:0) | 247 (score:3.819860%, count:0) | 724 (score:3.819860%, count:0) | 744 (score:3.819860%, count:0) | 747 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-17</t>
   </si>
   <si>
-    <t>753 (score:50.0000%, count:1) | 053 (score:50.0000%, count:1) | 050 (score:0.0000%, count:0) | 051 (score:0.0000%, count:0) | 052 (score:0.0000%, count:0) | 054 (score:0.0000%, count:0) | 055 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>753 (score:15.139721%, count:1) | 053 (score:15.139721%, count:1) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0) | 147 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-18</t>
   </si>
   <si>
-    <t>716 (score:50.0000%, count:1) | 001 (score:50.0000%, count:1) | 006 (score:12.5000%, count:0) | 011 (score:12.5000%, count:0) | 016 (score:12.5000%, count:0) | 701 (score:12.5000%, count:0) | 706 (score:12.5000%, count:0) | 711 (score:12.5000%, count:0) | 000 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 026 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 046 (score:0.0000%, count:0)</t>
+    <t>716 (score:3.889721%, count:1) | 001 (score:3.889721%, count:1) | 701 (score:3.819860%, count:0) | 706 (score:3.819860%, count:0) | 711 (score:3.819860%, count:0) | 006 (score:3.819860%, count:0) | 011 (score:3.819860%, count:0) | 016 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-19</t>
   </si>
   <si>
-    <t>677 (score:50.0000%, count:1) | 754 (score:50.0000%, count:1) | 654 (score:12.5000%, count:0) | 657 (score:12.5000%, count:0) | 674 (score:12.5000%, count:0) | 757 (score:12.5000%, count:0) | 774 (score:12.5000%, count:0) | 777 (score:12.5000%, count:0) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 652 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 670 (score:0.0000%, count:0) | 671 (score:0.0000%, count:0) | 672 (score:0.0000%, count:0) | 673 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 607 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 617 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 627 (score:0.0000%, count:0)</t>
+    <t>677 (score:3.889721%, count:1) | 754 (score:3.889721%, count:1) | 654 (score:3.819860%, count:0) | 657 (score:3.819860%, count:0) | 674 (score:3.819860%, count:0) | 757 (score:3.819860%, count:0) | 774 (score:3.819860%, count:0) | 777 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-20</t>
   </si>
   <si>
-    <t>315 (score:50.0000%, count:1) | 616 (score:50.0000%, count:1) | 316 (score:25.0000%, count:0) | 615 (score:25.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 306 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 326 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0) | 336 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 345 (score:0.0000%, count:0) | 346 (score:0.0000%, count:0) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0)</t>
+    <t>315 (score:7.639721%, count:1) | 616 (score:7.639721%, count:1) | 316 (score:7.569860%, count:0) | 615 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-21</t>
   </si>
   <si>
-    <t>906 (score:50.0000%, count:1) | 028 (score:50.0000%, count:1) | 006 (score:12.5000%, count:0) | 008 (score:12.5000%, count:0) | 026 (score:12.5000%, count:0) | 908 (score:12.5000%, count:0) | 926 (score:12.5000%, count:0) | 928 (score:12.5000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 016 (score:0.0000%, count:0) | 018 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 036 (score:0.0000%, count:0) | 038 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 046 (score:0.0000%, count:0) | 048 (score:0.0000%, count:0)</t>
+    <t>906 (score:3.889721%, count:1) | 028 (score:3.889721%, count:1) | 908 (score:3.819860%, count:0) | 926 (score:3.819860%, count:0) | 928 (score:3.819860%, count:0) | 006 (score:3.819860%, count:0) | 008 (score:3.819860%, count:0) | 026 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-22</t>
   </si>
   <si>
-    <t>750 (score:50.0000%, count:1) | 775 (score:50.0000%, count:1) | 755 (score:25.0000%, count:0) | 770 (score:25.0000%, count:0) | 751 (score:0.0000%, count:0) | 752 (score:0.0000%, count:0) | 753 (score:0.0000%, count:0) | 754 (score:0.0000%, count:0) | 771 (score:0.0000%, count:0) | 772 (score:0.0000%, count:0) | 773 (score:0.0000%, count:0) | 774 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0)</t>
+    <t>750 (score:7.639721%, count:1) | 775 (score:7.639721%, count:1) | 755 (score:7.569860%, count:0) | 770 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-23</t>
   </si>
   <si>
-    <t>144 (score:50.0000%, count:1) | 547 (score:50.0000%, count:1) | 147 (score:25.0000%, count:0) | 544 (score:25.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 137 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0)</t>
+    <t>144 (score:7.639721%, count:1) | 547 (score:7.639721%, count:1) | 147 (score:7.569860%, count:0) | 544 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-24</t>
   </si>
   <si>
-    <t>458 (score:50.0000%, count:1) | 960 (score:50.0000%, count:1) | 450 (score:12.5000%, count:0) | 460 (score:12.5000%, count:0) | 468 (score:12.5000%, count:0) | 950 (score:12.5000%, count:0) | 958 (score:12.5000%, count:0) | 968 (score:12.5000%, count:0) | 451 (score:0.0000%, count:0) | 452 (score:0.0000%, count:0) | 453 (score:0.0000%, count:0) | 454 (score:0.0000%, count:0) | 461 (score:0.0000%, count:0) | 462 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 464 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 408 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 418 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 428 (score:0.0000%, count:0)</t>
+    <t>458 (score:3.889721%, count:1) | 960 (score:3.889721%, count:1) | 450 (score:3.819860%, count:0) | 460 (score:3.819860%, count:0) | 468 (score:3.819860%, count:0) | 950 (score:3.819860%, count:0) | 958 (score:3.819860%, count:0) | 968 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-25</t>
   </si>
   <si>
-    <t>879 (score:50.0000%, count:1) | 949 (score:50.0000%, count:1) | 849 (score:25.0000%, count:0) | 979 (score:25.0000%, count:0) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0) | 870 (score:0.0000%, count:0) | 871 (score:0.0000%, count:0) | 872 (score:0.0000%, count:0) | 873 (score:0.0000%, count:0) | 874 (score:0.0000%, count:0) | 809 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 819 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 829 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0)</t>
+    <t>879 (score:7.639721%, count:1) | 949 (score:7.639721%, count:1) | 849 (score:7.569860%, count:0) | 979 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-26</t>
   </si>
   <si>
-    <t>904 (score:50.0000%, count:1) | 907 (score:50.0000%, count:1) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 917 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 927 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0) | 937 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 944 (score:0.0000%, count:0) | 947 (score:0.0000%, count:0) | 940 (score:0.0000%, count:0) | 941 (score:0.0000%, count:0) | 942 (score:0.0000%, count:0) | 943 (score:0.0000%, count:0)</t>
+    <t>904 (score:15.139721%, count:1) | 907 (score:15.139721%, count:1) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0) | 146 (score:0.069860%, count:0) | 147 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-27</t>
   </si>
   <si>
-    <t>447 (score:100.0000%, count:1) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0) | 407 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 417 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 427 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 437 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>447 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-09-28</t>
   </si>
   <si>
-    <t>167 (score:50.0000%, count:1) | 463 (score:50.0000%, count:1) | 163 (score:25.0000%, count:0) | 467 (score:25.0000%, count:0) | 160 (score:0.0000%, count:0) | 161 (score:0.0000%, count:0) | 162 (score:0.0000%, count:0) | 164 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 107 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 117 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 127 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 137 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0)</t>
+    <t>167 (score:7.639721%, count:1) | 463 (score:7.639721%, count:1) | 163 (score:7.569860%, count:0) | 467 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-29</t>
   </si>
   <si>
-    <t>175 (score:50.0000%, count:1) | 579 (score:50.0000%, count:1) | 179 (score:25.0000%, count:0) | 575 (score:25.0000%, count:0) | 170 (score:0.0000%, count:0) | 171 (score:0.0000%, count:0) | 172 (score:0.0000%, count:0) | 173 (score:0.0000%, count:0) | 105 (score:0.0000%, count:0) | 109 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 115 (score:0.0000%, count:0) | 119 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 125 (score:0.0000%, count:0) | 129 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 135 (score:0.0000%, count:0) | 139 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0)</t>
+    <t>175 (score:7.639721%, count:1) | 579 (score:7.639721%, count:1) | 179 (score:7.569860%, count:0) | 575 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-09-30</t>
   </si>
   <si>
-    <t>253 (score:50.0000%, count:1) | 622 (score:50.0000%, count:1) | 222 (score:12.5000%, count:0) | 223 (score:12.5000%, count:0) | 252 (score:12.5000%, count:0) | 623 (score:12.5000%, count:0) | 652 (score:12.5000%, count:0) | 653 (score:12.5000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 250 (score:0.0000%, count:0) | 251 (score:0.0000%, count:0) | 254 (score:0.0000%, count:0) | 255 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0)</t>
+    <t>253 (score:3.889721%, count:1) | 622 (score:3.889721%, count:1) | 222 (score:3.819860%, count:0) | 223 (score:3.819860%, count:0) | 252 (score:3.819860%, count:0) | 623 (score:3.819860%, count:0) | 652 (score:3.819860%, count:0) | 653 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-01</t>
   </si>
   <si>
-    <t>922 (score:50.0000%, count:1) | 043 (score:50.0000%, count:1) | 022 (score:12.5000%, count:0) | 023 (score:12.5000%, count:0) | 042 (score:12.5000%, count:0) | 923 (score:12.5000%, count:0) | 942 (score:12.5000%, count:0) | 943 (score:12.5000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 040 (score:0.0000%, count:0) | 041 (score:0.0000%, count:0) | 044 (score:0.0000%, count:0) | 045 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0)</t>
+    <t>922 (score:3.889721%, count:1) | 043 (score:3.889721%, count:1) | 923 (score:3.819860%, count:0) | 942 (score:3.819860%, count:0) | 943 (score:3.819860%, count:0) | 022 (score:3.819860%, count:0) | 023 (score:3.819860%, count:0) | 042 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-02</t>
   </si>
   <si>
-    <t>787 (score:4.4444%, count:2) | 922 (score:4.4444%, count:2) | 935 (score:4.4444%, count:2) | 065 (score:4.4444%, count:2) | 132 (score:2.2222%, count:1) | 136 (score:2.2222%, count:1) | 169 (score:2.2222%, count:1) | 170 (score:2.2222%, count:1) | 212 (score:2.2222%, count:1) | 222 (score:2.2222%, count:1) | 228 (score:2.2222%, count:1) | 262 (score:2.2222%, count:1) | 274 (score:2.2222%, count:1) | 374 (score:2.2222%, count:1) | 385 (score:2.2222%, count:1) | 424 (score:2.2222%, count:1) | 437 (score:2.2222%, count:1) | 453 (score:2.2222%, count:1) | 458 (score:2.2222%, count:1) | 469 (score:2.2222%, count:1) | 475 (score:2.2222%, count:1) | 542 (score:2.2222%, count:1) | 562 (score:2.2222%, count:1) | 593 (score:2.2222%, count:1) | 617 (score:2.2222%, count:1) | 632 (score:2.2222%, count:1) | 679 (score:2.2222%, count:1) | 681 (score:2.2222%, count:1) | 693 (score:2.2222%, count:1) | 740 (score:2.2222%, count:1)</t>
+    <t>922 (score:0.327706%, count:2) | 935 (score:0.297747%, count:2) | 065 (score:0.293138%, count:2) | 262 (score:0.278827%, count:1) | 962 (score:0.269784%, count:0) | 965 (score:0.263025%, count:1) | 787 (score:0.250340%, count:2) | 632 (score:0.242613%, count:1) | 462 (score:0.240813%, count:0) | 469 (score:0.228786%, count:1) | 222 (score:0.224506%, count:1) | 132 (score:0.220885%, count:1) | 562 (score:0.220885%, count:1) | 932 (score:0.219084%, count:0) | 942 (score:0.219084%, count:0) | 767 (score:0.212984%, count:1) | 662 (score:0.211842%, count:0) | 762 (score:0.211842%, count:0) | 062 (score:0.211842%, count:0) | 437 (score:0.205082%, count:1) | 475 (score:0.203107%, count:1) | 987 (score:0.203107%, count:1) | 542 (score:0.199156%, count:1) | 842 (score:0.199156%, count:1) | 432 (score:0.197356%, count:0) | 442 (score:0.197356%, count:0) | 169 (score:0.197181%, count:1) | 972 (score:0.193735%, count:0) | 982 (score:0.193735%, count:0) | 212 (score:0.188292%, count:1) | 679 (score:0.183354%, count:1) | 162 (score:0.182870%, count:0) | 465 (score:0.177603%, count:0) | 967 (score:0.177603%, count:0) | 969 (score:0.177603%, count:0) | 232 (score:0.175628%, count:0) | 242 (score:0.175628%, count:0) | 422 (score:0.175628%, count:0) | 472 (score:0.175628%, count:0) | 482 (score:0.175628%, count:0) | 642 (score:0.175628%, count:0) | 732 (score:0.175628%, count:0) | 742 (score:0.175628%, count:0) | 032 (score:0.175628%, count:0) | 042 (score:0.175628%, count:0) | 946 (score:0.175453%, count:1) | 043 (score:0.173477%, count:1) | 099 (score:0.173477%, count:1) | 992 (score:0.168385%, count:0) | 852 (score:0.166564%, count:1)</t>
   </si>
   <si>
     <t>2026-10-03</t>
   </si>
   <si>
-    <t>274 (score:50.0000%, count:1) | 453 (score:50.0000%, count:1) | 253 (score:12.5000%, count:0) | 254 (score:12.5000%, count:0) | 273 (score:12.5000%, count:0) | 454 (score:12.5000%, count:0) | 473 (score:12.5000%, count:0) | 474 (score:12.5000%, count:0) | 250 (score:0.0000%, count:0) | 251 (score:0.0000%, count:0) | 252 (score:0.0000%, count:0) | 255 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 272 (score:0.0000%, count:0) | 275 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0)</t>
+    <t>274 (score:3.889721%, count:1) | 453 (score:3.889721%, count:1) | 253 (score:3.819860%, count:0) | 254 (score:3.819860%, count:0) | 273 (score:3.819860%, count:0) | 454 (score:3.819860%, count:0) | 473 (score:3.819860%, count:0) | 474 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-04</t>
   </si>
   <si>
-    <t>617 (score:50.0000%, count:1) | 852 (score:50.0000%, count:1) | 612 (score:12.5000%, count:0) | 652 (score:12.5000%, count:0) | 657 (score:12.5000%, count:0) | 812 (score:12.5000%, count:0) | 817 (score:12.5000%, count:0) | 857 (score:12.5000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 650 (score:0.0000%, count:0) | 651 (score:0.0000%, count:0) | 653 (score:0.0000%, count:0) | 654 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 607 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 627 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 637 (score:0.0000%, count:0)</t>
+    <t>617 (score:3.889721%, count:1) | 852 (score:3.889721%, count:1) | 612 (score:3.819860%, count:0) | 652 (score:3.819860%, count:0) | 657 (score:3.819860%, count:0) | 812 (score:3.819860%, count:0) | 817 (score:3.819860%, count:0) | 857 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-05</t>
   </si>
   <si>
-    <t>170 (score:50.0000%, count:1) | 019 (score:50.0000%, count:1) | 010 (score:12.5000%, count:0) | 070 (score:12.5000%, count:0) | 079 (score:12.5000%, count:0) | 110 (score:12.5000%, count:0) | 119 (score:12.5000%, count:0) | 179 (score:12.5000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 071 (score:0.0000%, count:0) | 072 (score:0.0000%, count:0) | 073 (score:0.0000%, count:0) | 074 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 039 (score:0.0000%, count:0)</t>
+    <t>170 (score:3.889721%, count:1) | 019 (score:3.889721%, count:1) | 110 (score:3.819860%, count:0) | 119 (score:3.819860%, count:0) | 179 (score:3.819860%, count:0) | 010 (score:3.819860%, count:0) | 070 (score:3.819860%, count:0) | 079 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-06</t>
   </si>
   <si>
-    <t>437 (score:50.0000%, count:1) | 746 (score:50.0000%, count:1) | 436 (score:12.5000%, count:0) | 446 (score:12.5000%, count:0) | 447 (score:12.5000%, count:0) | 736 (score:12.5000%, count:0) | 737 (score:12.5000%, count:0) | 747 (score:12.5000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 406 (score:0.0000%, count:0) | 407 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 416 (score:0.0000%, count:0) | 417 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 426 (score:0.0000%, count:0) | 427 (score:0.0000%, count:0)</t>
+    <t>437 (score:3.889721%, count:1) | 746 (score:3.889721%, count:1) | 436 (score:3.819860%, count:0) | 446 (score:3.819860%, count:0) | 447 (score:3.819860%, count:0) | 736 (score:3.819860%, count:0) | 737 (score:3.819860%, count:0) | 747 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-07</t>
   </si>
   <si>
-    <t>693 (score:50.0000%, count:1) | 946 (score:50.0000%, count:1) | 643 (score:12.5000%, count:0) | 646 (score:12.5000%, count:0) | 696 (score:12.5000%, count:0) | 943 (score:12.5000%, count:0) | 993 (score:12.5000%, count:0) | 996 (score:12.5000%, count:0) | 640 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 642 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 690 (score:0.0000%, count:0) | 691 (score:0.0000%, count:0) | 692 (score:0.0000%, count:0) | 694 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 606 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 616 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 626 (score:0.0000%, count:0)</t>
+    <t>693 (score:3.889721%, count:1) | 946 (score:3.889721%, count:1) | 643 (score:3.819860%, count:0) | 646 (score:3.819860%, count:0) | 696 (score:3.819860%, count:0) | 943 (score:3.819860%, count:0) | 993 (score:3.819860%, count:0) | 996 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-08</t>
   </si>
   <si>
-    <t>169 (score:50.0000%, count:1) | 424 (score:50.0000%, count:1) | 124 (score:12.5000%, count:0) | 129 (score:12.5000%, count:0) | 164 (score:12.5000%, count:0) | 429 (score:12.5000%, count:0) | 464 (score:12.5000%, count:0) | 469 (score:12.5000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 160 (score:0.0000%, count:0) | 161 (score:0.0000%, count:0) | 162 (score:0.0000%, count:0) | 163 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 109 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 119 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 139 (score:0.0000%, count:0)</t>
+    <t>169 (score:3.889721%, count:1) | 424 (score:3.889721%, count:1) | 124 (score:3.819860%, count:0) | 129 (score:3.819860%, count:0) | 164 (score:3.819860%, count:0) | 429 (score:3.819860%, count:0) | 464 (score:3.819860%, count:0) | 469 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-09</t>
   </si>
   <si>
-    <t>222 (score:50.0000%, count:1) | 475 (score:50.0000%, count:1) | 225 (score:12.5000%, count:0) | 272 (score:12.5000%, count:0) | 275 (score:12.5000%, count:0) | 422 (score:12.5000%, count:0) | 425 (score:12.5000%, count:0) | 472 (score:12.5000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 274 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 215 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 235 (score:0.0000%, count:0)</t>
+    <t>222 (score:3.889721%, count:1) | 475 (score:3.889721%, count:1) | 225 (score:3.819860%, count:0) | 272 (score:3.819860%, count:0) | 275 (score:3.819860%, count:0) | 422 (score:3.819860%, count:0) | 425 (score:3.819860%, count:0) | 472 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-10</t>
   </si>
   <si>
-    <t>228 (score:50.0000%, count:1) | 679 (score:50.0000%, count:1) | 229 (score:12.5000%, count:0) | 278 (score:12.5000%, count:0) | 279 (score:12.5000%, count:0) | 628 (score:12.5000%, count:0) | 629 (score:12.5000%, count:0) | 678 (score:12.5000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 270 (score:0.0000%, count:0) | 271 (score:0.0000%, count:0) | 272 (score:0.0000%, count:0) | 273 (score:0.0000%, count:0) | 208 (score:0.0000%, count:0) | 209 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 218 (score:0.0000%, count:0) | 219 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 238 (score:0.0000%, count:0) | 239 (score:0.0000%, count:0)</t>
+    <t>228 (score:3.889721%, count:1) | 679 (score:3.889721%, count:1) | 229 (score:3.819860%, count:0) | 278 (score:3.819860%, count:0) | 279 (score:3.819860%, count:0) | 628 (score:3.819860%, count:0) | 629 (score:3.819860%, count:0) | 678 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-11</t>
   </si>
   <si>
-    <t>262 (score:50.0000%, count:1) | 767 (score:50.0000%, count:1) | 267 (score:25.0000%, count:0) | 762 (score:25.0000%, count:0) | 260 (score:0.0000%, count:0) | 261 (score:0.0000%, count:0) | 263 (score:0.0000%, count:0) | 264 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 227 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0)</t>
+    <t>262 (score:7.639721%, count:1) | 767 (score:7.639721%, count:1) | 267 (score:7.569860%, count:0) | 762 (score:7.569860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0) | 142 (score:0.069860%, count:0) | 143 (score:0.069860%, count:0) | 144 (score:0.069860%, count:0) | 145 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-12</t>
   </si>
   <si>
-    <t>212 (score:50.0000%, count:1) | 935 (score:50.0000%, count:1) | 215 (score:12.5000%, count:0) | 232 (score:12.5000%, count:0) | 235 (score:12.5000%, count:0) | 912 (score:12.5000%, count:0) | 915 (score:12.5000%, count:0) | 932 (score:12.5000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 205 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 225 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 245 (score:0.0000%, count:0)</t>
+    <t>212 (score:3.889721%, count:1) | 935 (score:3.889721%, count:1) | 215 (score:3.819860%, count:0) | 232 (score:3.819860%, count:0) | 235 (score:3.819860%, count:0) | 912 (score:3.819860%, count:0) | 915 (score:3.819860%, count:0) | 932 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-13</t>
   </si>
   <si>
-    <t>562 (score:50.0000%, count:1) | 935 (score:50.0000%, count:1) | 532 (score:12.5000%, count:0) | 535 (score:12.5000%, count:0) | 565 (score:12.5000%, count:0) | 932 (score:12.5000%, count:0) | 962 (score:12.5000%, count:0) | 965 (score:12.5000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 560 (score:0.0000%, count:0) | 561 (score:0.0000%, count:0) | 563 (score:0.0000%, count:0) | 564 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0)</t>
+    <t>562 (score:3.889721%, count:1) | 935 (score:3.889721%, count:1) | 532 (score:3.819860%, count:0) | 535 (score:3.819860%, count:0) | 565 (score:3.819860%, count:0) | 932 (score:3.819860%, count:0) | 962 (score:3.819860%, count:0) | 965 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-14</t>
   </si>
   <si>
-    <t>632 (score:50.0000%, count:1) | 740 (score:50.0000%, count:1) | 630 (score:12.5000%, count:0) | 640 (score:12.5000%, count:0) | 642 (score:12.5000%, count:0) | 730 (score:12.5000%, count:0) | 732 (score:12.5000%, count:0) | 742 (score:12.5000%, count:0) | 631 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0) | 641 (score:0.0000%, count:0) | 643 (score:0.0000%, count:0) | 644 (score:0.0000%, count:0) | 645 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0)</t>
+    <t>632 (score:3.889721%, count:1) | 740 (score:3.889721%, count:1) | 630 (score:3.819860%, count:0) | 640 (score:3.819860%, count:0) | 642 (score:3.819860%, count:0) | 730 (score:3.819860%, count:0) | 732 (score:3.819860%, count:0) | 742 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-15</t>
   </si>
   <si>
-    <t>458 (score:50.0000%, count:1) | 922 (score:50.0000%, count:1) | 422 (score:12.5000%, count:0) | 428 (score:12.5000%, count:0) | 452 (score:12.5000%, count:0) | 928 (score:12.5000%, count:0) | 952 (score:12.5000%, count:0) | 958 (score:12.5000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 450 (score:0.0000%, count:0) | 451 (score:0.0000%, count:0) | 453 (score:0.0000%, count:0) | 454 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 408 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 418 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 438 (score:0.0000%, count:0)</t>
+    <t>458 (score:3.889721%, count:1) | 922 (score:3.889721%, count:1) | 422 (score:3.819860%, count:0) | 428 (score:3.819860%, count:0) | 452 (score:3.819860%, count:0) | 928 (score:3.819860%, count:0) | 952 (score:3.819860%, count:0) | 958 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-16</t>
   </si>
   <si>
-    <t>593 (score:50.0000%, count:1) | 987 (score:50.0000%, count:1) | 583 (score:12.5000%, count:0) | 587 (score:12.5000%, count:0) | 597 (score:12.5000%, count:0) | 983 (score:12.5000%, count:0) | 993 (score:12.5000%, count:0) | 997 (score:12.5000%, count:0) | 580 (score:0.0000%, count:0) | 581 (score:0.0000%, count:0) | 582 (score:0.0000%, count:0) | 584 (score:0.0000%, count:0) | 590 (score:0.0000%, count:0) | 591 (score:0.0000%, count:0) | 592 (score:0.0000%, count:0) | 594 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 507 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 517 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 527 (score:0.0000%, count:0)</t>
+    <t>593 (score:3.889721%, count:1) | 987 (score:3.889721%, count:1) | 583 (score:3.819860%, count:0) | 587 (score:3.819860%, count:0) | 597 (score:3.819860%, count:0) | 983 (score:3.819860%, count:0) | 993 (score:3.819860%, count:0) | 997 (score:3.819860%, count:0) | 100 (score:0.069860%, count:0) | 101 (score:0.069860%, count:0) | 102 (score:0.069860%, count:0) | 103 (score:0.069860%, count:0) | 104 (score:0.069860%, count:0) | 105 (score:0.069860%, count:0) | 106 (score:0.069860%, count:0) | 107 (score:0.069860%, count:0) | 108 (score:0.069860%, count:0) | 109 (score:0.069860%, count:0) | 110 (score:0.069860%, count:0) | 111 (score:0.069860%, count:0) | 112 (score:0.069860%, count:0) | 113 (score:0.069860%, count:0) | 114 (score:0.069860%, count:0) | 115 (score:0.069860%, count:0) | 116 (score:0.069860%, count:0) | 117 (score:0.069860%, count:0) | 118 (score:0.069860%, count:0) | 119 (score:0.069860%, count:0) | 120 (score:0.069860%, count:0) | 121 (score:0.069860%, count:0) | 122 (score:0.069860%, count:0) | 123 (score:0.069860%, count:0) | 124 (score:0.069860%, count:0) | 125 (score:0.069860%, count:0) | 126 (score:0.069860%, count:0) | 127 (score:0.069860%, count:0) | 128 (score:0.069860%, count:0) | 129 (score:0.069860%, count:0) | 130 (score:0.069860%, count:0) | 131 (score:0.069860%, count:0) | 132 (score:0.069860%, count:0) | 133 (score:0.069860%, count:0) | 134 (score:0.069860%, count:0) | 135 (score:0.069860%, count:0) | 136 (score:0.069860%, count:0) | 137 (score:0.069860%, count:0) | 138 (score:0.069860%, count:0) | 139 (score:0.069860%, count:0) | 140 (score:0.069860%, count:0) | 141 (score:0.069860%, count:0)</t>
   </si>
   <si>
     <t>2026-10-17</t>
   </si>
   <si>
-    <t>965 (score:100.0000%, count:1) | 960 (score:0.0000%, count:0) | 961 (score:0.0000%, count:0) | 962 (score:0.0000%, count:0) | 963 (score:0.0000%, count:0) | 964 (score:0.0000%, count:0) | 905 (score:0.0000%, count:0) | 900 (score:0.0000%, count:0) | 901 (score:0.0000%, count:0) | 902 (score:0.0000%, count:0) | 903 (score:0.0000%, count:0) | 904 (score:0.0000%, count:0) | 915 (score:0.0000%, count:0) | 910 (score:0.0000%, count:0) | 911 (score:0.0000%, count:0) | 912 (score:0.0000%, count:0) | 913 (score:0.0000%, count:0) | 914 (score:0.0000%, count:0) | 925 (score:0.0000%, count:0) | 920 (score:0.0000%, count:0) | 921 (score:0.0000%, count:0) | 922 (score:0.0000%, count:0) | 923 (score:0.0000%, count:0) | 924 (score:0.0000%, count:0) | 935 (score:0.0000%, count:0) | 930 (score:0.0000%, count:0) | 931 (score:0.0000%, count:0) | 932 (score:0.0000%, count:0) | 933 (score:0.0000%, count:0) | 934 (score:0.0000%, count:0)</t>
+    <t>965 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-18</t>
   </si>
   <si>
-    <t>469 (score:100.0000%, count:1) | 460 (score:0.0000%, count:0) | 461 (score:0.0000%, count:0) | 462 (score:0.0000%, count:0) | 463 (score:0.0000%, count:0) | 464 (score:0.0000%, count:0) | 409 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 419 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 429 (score:0.0000%, count:0) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 439 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0)</t>
+    <t>469 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-19</t>
@@ -3244,7 +3244,7 @@
     <t>2026-10-20</t>
   </si>
   <si>
-    <t>787 (score:100.0000%, count:1) | 780 (score:0.0000%, count:0) | 781 (score:0.0000%, count:0) | 782 (score:0.0000%, count:0) | 783 (score:0.0000%, count:0) | 784 (score:0.0000%, count:0) | 707 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 717 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 727 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 737 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0)</t>
+    <t>787 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-21</t>
@@ -3253,25 +3253,25 @@
     <t>2026-10-22</t>
   </si>
   <si>
-    <t>385 (score:100.0000%, count:1) | 380 (score:0.0000%, count:0) | 381 (score:0.0000%, count:0) | 382 (score:0.0000%, count:0) | 383 (score:0.0000%, count:0) | 384 (score:0.0000%, count:0) | 305 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 315 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 325 (score:0.0000%, count:0) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 335 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0)</t>
+    <t>385 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-23</t>
   </si>
   <si>
-    <t>542 (score:100.0000%, count:1) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0) | 545 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>542 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-24</t>
   </si>
   <si>
-    <t>681 (score:100.0000%, count:1) | 680 (score:0.0000%, count:0) | 682 (score:0.0000%, count:0) | 683 (score:0.0000%, count:0) | 684 (score:0.0000%, count:0) | 685 (score:0.0000%, count:0) | 601 (score:0.0000%, count:0) | 600 (score:0.0000%, count:0) | 602 (score:0.0000%, count:0) | 603 (score:0.0000%, count:0) | 604 (score:0.0000%, count:0) | 605 (score:0.0000%, count:0) | 611 (score:0.0000%, count:0) | 610 (score:0.0000%, count:0) | 612 (score:0.0000%, count:0) | 613 (score:0.0000%, count:0) | 614 (score:0.0000%, count:0) | 615 (score:0.0000%, count:0) | 621 (score:0.0000%, count:0) | 620 (score:0.0000%, count:0) | 622 (score:0.0000%, count:0) | 623 (score:0.0000%, count:0) | 624 (score:0.0000%, count:0) | 625 (score:0.0000%, count:0) | 631 (score:0.0000%, count:0) | 630 (score:0.0000%, count:0) | 632 (score:0.0000%, count:0) | 633 (score:0.0000%, count:0) | 634 (score:0.0000%, count:0) | 635 (score:0.0000%, count:0)</t>
+    <t>681 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-25</t>
   </si>
   <si>
-    <t>842 (score:100.0000%, count:1) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0) | 845 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>842 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-26</t>
@@ -3280,7 +3280,7 @@
     <t>2026-10-27</t>
   </si>
   <si>
-    <t>099 (score:100.0000%, count:1) | 090 (score:0.0000%, count:0) | 091 (score:0.0000%, count:0) | 092 (score:0.0000%, count:0) | 093 (score:0.0000%, count:0) | 094 (score:0.0000%, count:0) | 009 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 019 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 029 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 039 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0)</t>
+    <t>099 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-10-28</t>
@@ -3295,7 +3295,7 @@
     <t>2026-10-31</t>
   </si>
   <si>
-    <t>136 (score:100.0000%, count:1) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0) | 106 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 116 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 126 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 146 (score:0.0000%, count:0) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0)</t>
+    <t>136 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-01</t>
@@ -3307,19 +3307,19 @@
     <t>2026-11-03</t>
   </si>
   <si>
-    <t>742 (score:100.0000%, count:1) | 740 (score:0.0000%, count:0) | 741 (score:0.0000%, count:0) | 743 (score:0.0000%, count:0) | 744 (score:0.0000%, count:0) | 745 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>742 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-04</t>
   </si>
   <si>
-    <t>146 (score:100.0000%, count:1) | 140 (score:0.0000%, count:0) | 141 (score:0.0000%, count:0) | 142 (score:0.0000%, count:0) | 143 (score:0.0000%, count:0) | 144 (score:0.0000%, count:0) | 106 (score:0.0000%, count:0) | 100 (score:0.0000%, count:0) | 101 (score:0.0000%, count:0) | 102 (score:0.0000%, count:0) | 103 (score:0.0000%, count:0) | 104 (score:0.0000%, count:0) | 116 (score:0.0000%, count:0) | 110 (score:0.0000%, count:0) | 111 (score:0.0000%, count:0) | 112 (score:0.0000%, count:0) | 113 (score:0.0000%, count:0) | 114 (score:0.0000%, count:0) | 126 (score:0.0000%, count:0) | 120 (score:0.0000%, count:0) | 121 (score:0.0000%, count:0) | 122 (score:0.0000%, count:0) | 123 (score:0.0000%, count:0) | 124 (score:0.0000%, count:0) | 136 (score:0.0000%, count:0) | 130 (score:0.0000%, count:0) | 131 (score:0.0000%, count:0) | 132 (score:0.0000%, count:0) | 133 (score:0.0000%, count:0) | 134 (score:0.0000%, count:0)</t>
+    <t>146 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0) | 149 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-05</t>
   </si>
   <si>
-    <t>782 (score:100.0000%, count:1) | 780 (score:0.0000%, count:0) | 781 (score:0.0000%, count:0) | 783 (score:0.0000%, count:0) | 784 (score:0.0000%, count:0) | 785 (score:0.0000%, count:0) | 702 (score:0.0000%, count:0) | 700 (score:0.0000%, count:0) | 701 (score:0.0000%, count:0) | 703 (score:0.0000%, count:0) | 704 (score:0.0000%, count:0) | 705 (score:0.0000%, count:0) | 712 (score:0.0000%, count:0) | 710 (score:0.0000%, count:0) | 711 (score:0.0000%, count:0) | 713 (score:0.0000%, count:0) | 714 (score:0.0000%, count:0) | 715 (score:0.0000%, count:0) | 722 (score:0.0000%, count:0) | 720 (score:0.0000%, count:0) | 721 (score:0.0000%, count:0) | 723 (score:0.0000%, count:0) | 724 (score:0.0000%, count:0) | 725 (score:0.0000%, count:0) | 732 (score:0.0000%, count:0) | 730 (score:0.0000%, count:0) | 731 (score:0.0000%, count:0) | 733 (score:0.0000%, count:0) | 734 (score:0.0000%, count:0) | 735 (score:0.0000%, count:0)</t>
+    <t>782 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-06</t>
@@ -3328,31 +3328,31 @@
     <t>2026-11-07</t>
   </si>
   <si>
-    <t>326 (score:100.0000%, count:1) | 320 (score:0.0000%, count:0) | 321 (score:0.0000%, count:0) | 322 (score:0.0000%, count:0) | 323 (score:0.0000%, count:0) | 324 (score:0.0000%, count:0) | 306 (score:0.0000%, count:0) | 300 (score:0.0000%, count:0) | 301 (score:0.0000%, count:0) | 302 (score:0.0000%, count:0) | 303 (score:0.0000%, count:0) | 304 (score:0.0000%, count:0) | 316 (score:0.0000%, count:0) | 310 (score:0.0000%, count:0) | 311 (score:0.0000%, count:0) | 312 (score:0.0000%, count:0) | 313 (score:0.0000%, count:0) | 314 (score:0.0000%, count:0) | 336 (score:0.0000%, count:0) | 330 (score:0.0000%, count:0) | 331 (score:0.0000%, count:0) | 332 (score:0.0000%, count:0) | 333 (score:0.0000%, count:0) | 334 (score:0.0000%, count:0) | 346 (score:0.0000%, count:0) | 340 (score:0.0000%, count:0) | 341 (score:0.0000%, count:0) | 342 (score:0.0000%, count:0) | 343 (score:0.0000%, count:0) | 344 (score:0.0000%, count:0)</t>
+    <t>326 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-08</t>
   </si>
   <si>
-    <t>074 (score:100.0000%, count:1) | 070 (score:0.0000%, count:0) | 071 (score:0.0000%, count:0) | 072 (score:0.0000%, count:0) | 073 (score:0.0000%, count:0) | 075 (score:0.0000%, count:0) | 004 (score:0.0000%, count:0) | 000 (score:0.0000%, count:0) | 001 (score:0.0000%, count:0) | 002 (score:0.0000%, count:0) | 003 (score:0.0000%, count:0) | 005 (score:0.0000%, count:0) | 014 (score:0.0000%, count:0) | 010 (score:0.0000%, count:0) | 011 (score:0.0000%, count:0) | 012 (score:0.0000%, count:0) | 013 (score:0.0000%, count:0) | 015 (score:0.0000%, count:0) | 024 (score:0.0000%, count:0) | 020 (score:0.0000%, count:0) | 021 (score:0.0000%, count:0) | 022 (score:0.0000%, count:0) | 023 (score:0.0000%, count:0) | 025 (score:0.0000%, count:0) | 034 (score:0.0000%, count:0) | 030 (score:0.0000%, count:0) | 031 (score:0.0000%, count:0) | 032 (score:0.0000%, count:0) | 033 (score:0.0000%, count:0) | 035 (score:0.0000%, count:0)</t>
+    <t>074 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-09</t>
   </si>
   <si>
-    <t>517 (score:100.0000%, count:1) | 510 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 507 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 527 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 537 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 547 (score:0.0000%, count:0) | 540 (score:0.0000%, count:0) | 541 (score:0.0000%, count:0) | 542 (score:0.0000%, count:0) | 543 (score:0.0000%, count:0) | 544 (score:0.0000%, count:0)</t>
+    <t>517 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-10</t>
   </si>
   <si>
-    <t>591 (score:100.0000%, count:1) | 590 (score:0.0000%, count:0) | 592 (score:0.0000%, count:0) | 593 (score:0.0000%, count:0) | 594 (score:0.0000%, count:0) | 595 (score:0.0000%, count:0) | 501 (score:0.0000%, count:0) | 500 (score:0.0000%, count:0) | 502 (score:0.0000%, count:0) | 503 (score:0.0000%, count:0) | 504 (score:0.0000%, count:0) | 505 (score:0.0000%, count:0) | 511 (score:0.0000%, count:0) | 510 (score:0.0000%, count:0) | 512 (score:0.0000%, count:0) | 513 (score:0.0000%, count:0) | 514 (score:0.0000%, count:0) | 515 (score:0.0000%, count:0) | 521 (score:0.0000%, count:0) | 520 (score:0.0000%, count:0) | 522 (score:0.0000%, count:0) | 523 (score:0.0000%, count:0) | 524 (score:0.0000%, count:0) | 525 (score:0.0000%, count:0) | 531 (score:0.0000%, count:0) | 530 (score:0.0000%, count:0) | 532 (score:0.0000%, count:0) | 533 (score:0.0000%, count:0) | 534 (score:0.0000%, count:0) | 535 (score:0.0000%, count:0)</t>
+    <t>591 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-11</t>
   </si>
   <si>
-    <t>871 (score:100.0000%, count:1) | 870 (score:0.0000%, count:0) | 872 (score:0.0000%, count:0) | 873 (score:0.0000%, count:0) | 874 (score:0.0000%, count:0) | 875 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 805 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 815 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 825 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 830 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 835 (score:0.0000%, count:0)</t>
+    <t>871 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-12</t>
@@ -3361,19 +3361,19 @@
     <t>2026-11-13</t>
   </si>
   <si>
-    <t>838 (score:100.0000%, count:1) | 830 (score:0.0000%, count:0) | 831 (score:0.0000%, count:0) | 832 (score:0.0000%, count:0) | 833 (score:0.0000%, count:0) | 834 (score:0.0000%, count:0) | 808 (score:0.0000%, count:0) | 800 (score:0.0000%, count:0) | 801 (score:0.0000%, count:0) | 802 (score:0.0000%, count:0) | 803 (score:0.0000%, count:0) | 804 (score:0.0000%, count:0) | 818 (score:0.0000%, count:0) | 810 (score:0.0000%, count:0) | 811 (score:0.0000%, count:0) | 812 (score:0.0000%, count:0) | 813 (score:0.0000%, count:0) | 814 (score:0.0000%, count:0) | 828 (score:0.0000%, count:0) | 820 (score:0.0000%, count:0) | 821 (score:0.0000%, count:0) | 822 (score:0.0000%, count:0) | 823 (score:0.0000%, count:0) | 824 (score:0.0000%, count:0) | 848 (score:0.0000%, count:0) | 840 (score:0.0000%, count:0) | 841 (score:0.0000%, count:0) | 842 (score:0.0000%, count:0) | 843 (score:0.0000%, count:0) | 844 (score:0.0000%, count:0)</t>
+    <t>838 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-14</t>
   </si>
   <si>
-    <t>247 (score:100.0000%, count:1) | 240 (score:0.0000%, count:0) | 241 (score:0.0000%, count:0) | 242 (score:0.0000%, count:0) | 243 (score:0.0000%, count:0) | 244 (score:0.0000%, count:0) | 207 (score:0.0000%, count:0) | 200 (score:0.0000%, count:0) | 201 (score:0.0000%, count:0) | 202 (score:0.0000%, count:0) | 203 (score:0.0000%, count:0) | 204 (score:0.0000%, count:0) | 217 (score:0.0000%, count:0) | 210 (score:0.0000%, count:0) | 211 (score:0.0000%, count:0) | 212 (score:0.0000%, count:0) | 213 (score:0.0000%, count:0) | 214 (score:0.0000%, count:0) | 227 (score:0.0000%, count:0) | 220 (score:0.0000%, count:0) | 221 (score:0.0000%, count:0) | 222 (score:0.0000%, count:0) | 223 (score:0.0000%, count:0) | 224 (score:0.0000%, count:0) | 237 (score:0.0000%, count:0) | 230 (score:0.0000%, count:0) | 231 (score:0.0000%, count:0) | 232 (score:0.0000%, count:0) | 233 (score:0.0000%, count:0) | 234 (score:0.0000%, count:0)</t>
+    <t>247 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
   <si>
     <t>2026-11-15</t>
   </si>
   <si>
-    <t>425 (score:100.0000%, count:1) | 420 (score:0.0000%, count:0) | 421 (score:0.0000%, count:0) | 422 (score:0.0000%, count:0) | 423 (score:0.0000%, count:0) | 424 (score:0.0000%, count:0) | 405 (score:0.0000%, count:0) | 400 (score:0.0000%, count:0) | 401 (score:0.0000%, count:0) | 402 (score:0.0000%, count:0) | 403 (score:0.0000%, count:0) | 404 (score:0.0000%, count:0) | 415 (score:0.0000%, count:0) | 410 (score:0.0000%, count:0) | 411 (score:0.0000%, count:0) | 412 (score:0.0000%, count:0) | 413 (score:0.0000%, count:0) | 414 (score:0.0000%, count:0) | 435 (score:0.0000%, count:0) | 430 (score:0.0000%, count:0) | 431 (score:0.0000%, count:0) | 432 (score:0.0000%, count:0) | 433 (score:0.0000%, count:0) | 434 (score:0.0000%, count:0) | 445 (score:0.0000%, count:0) | 440 (score:0.0000%, count:0) | 441 (score:0.0000%, count:0) | 442 (score:0.0000%, count:0) | 443 (score:0.0000%, count:0) | 444 (score:0.0000%, count:0)</t>
+    <t>425 (score:30.139860%, count:1) | 100 (score:0.069930%, count:0) | 101 (score:0.069930%, count:0) | 102 (score:0.069930%, count:0) | 103 (score:0.069930%, count:0) | 104 (score:0.069930%, count:0) | 105 (score:0.069930%, count:0) | 106 (score:0.069930%, count:0) | 107 (score:0.069930%, count:0) | 108 (score:0.069930%, count:0) | 109 (score:0.069930%, count:0) | 110 (score:0.069930%, count:0) | 111 (score:0.069930%, count:0) | 112 (score:0.069930%, count:0) | 113 (score:0.069930%, count:0) | 114 (score:0.069930%, count:0) | 115 (score:0.069930%, count:0) | 116 (score:0.069930%, count:0) | 117 (score:0.069930%, count:0) | 118 (score:0.069930%, count:0) | 119 (score:0.069930%, count:0) | 120 (score:0.069930%, count:0) | 121 (score:0.069930%, count:0) | 122 (score:0.069930%, count:0) | 123 (score:0.069930%, count:0) | 124 (score:0.069930%, count:0) | 125 (score:0.069930%, count:0) | 126 (score:0.069930%, count:0) | 127 (score:0.069930%, count:0) | 128 (score:0.069930%, count:0) | 129 (score:0.069930%, count:0) | 130 (score:0.069930%, count:0) | 131 (score:0.069930%, count:0) | 132 (score:0.069930%, count:0) | 133 (score:0.069930%, count:0) | 134 (score:0.069930%, count:0) | 135 (score:0.069930%, count:0) | 136 (score:0.069930%, count:0) | 137 (score:0.069930%, count:0) | 138 (score:0.069930%, count:0) | 139 (score:0.069930%, count:0) | 140 (score:0.069930%, count:0) | 141 (score:0.069930%, count:0) | 142 (score:0.069930%, count:0) | 143 (score:0.069930%, count:0) | 144 (score:0.069930%, count:0) | 145 (score:0.069930%, count:0) | 146 (score:0.069930%, count:0) | 147 (score:0.069930%, count:0) | 148 (score:0.069930%, count:0)</t>
   </si>
 </sst>
 </file>
